--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,12 @@
     <t>['35', '49']</t>
   </si>
   <si>
+    <t>['89', '90']</t>
+  </si>
+  <si>
+    <t>['37', '9002']</t>
+  </si>
+  <si>
     <t>['19', '27', '40', '55', '68']</t>
   </si>
   <si>
@@ -680,6 +686,12 @@
   </si>
   <si>
     <t>['57', '86']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['9004']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT2">
         <v>0.93</v>
@@ -1757,7 +1769,7 @@
         <v>1.56</v>
       </c>
       <c r="AT4">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1945,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT5">
         <v>1.07</v>
@@ -2136,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT6">
         <v>1.73</v>
@@ -2330,7 +2342,7 @@
         <v>0.71</v>
       </c>
       <c r="AT7">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2431,7 +2443,7 @@
         <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2709,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT9">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3004,7 +3016,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3386,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3476,7 +3488,7 @@
         <v>1.27</v>
       </c>
       <c r="AT13">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3664,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT14">
         <v>1.07</v>
@@ -3858,7 +3870,7 @@
         <v>1.53</v>
       </c>
       <c r="AT15">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4049,7 +4061,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU16">
         <v>2.46</v>
@@ -4237,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT17">
         <v>1.73</v>
@@ -4428,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT18">
         <v>0.93</v>
@@ -4622,7 +4634,7 @@
         <v>0.71</v>
       </c>
       <c r="AT19">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4723,7 +4735,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4813,7 +4825,7 @@
         <v>1.6</v>
       </c>
       <c r="AT20">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU20">
         <v>1.06</v>
@@ -4914,7 +4926,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -5574,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT24">
         <v>1.87</v>
@@ -5959,7 +5971,7 @@
         <v>1.53</v>
       </c>
       <c r="AT26">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU26">
         <v>1.73</v>
@@ -6338,10 +6350,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT28">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6529,10 +6541,10 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT29">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU29">
         <v>1.67</v>
@@ -6911,7 +6923,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT31">
         <v>1.07</v>
@@ -7105,7 +7117,7 @@
         <v>0.71</v>
       </c>
       <c r="AT32">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7293,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT33">
         <v>1.07</v>
@@ -7397,7 +7409,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7779,7 +7791,7 @@
         <v>78</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7869,7 +7881,7 @@
         <v>1.27</v>
       </c>
       <c r="AT36">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>1.37</v>
@@ -8057,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
         <v>1.14</v>
@@ -8442,7 +8454,7 @@
         <v>1.6</v>
       </c>
       <c r="AT39">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU39">
         <v>1.3</v>
@@ -8630,7 +8642,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT40">
         <v>1.5</v>
@@ -8821,7 +8833,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT41">
         <v>1.06</v>
@@ -9015,7 +9027,7 @@
         <v>1.64</v>
       </c>
       <c r="AT42">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU42">
         <v>1.69</v>
@@ -9116,7 +9128,7 @@
         <v>92</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9397,7 +9409,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9498,7 +9510,7 @@
         <v>93</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9689,7 +9701,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9967,10 +9979,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT47">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU47">
         <v>1.93</v>
@@ -10071,7 +10083,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10349,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT49">
         <v>1.07</v>
@@ -10925,7 +10937,7 @@
         <v>1.27</v>
       </c>
       <c r="AT52">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU52">
         <v>0.96</v>
@@ -11026,7 +11038,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11113,7 +11125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT53">
         <v>1.06</v>
@@ -11217,7 +11229,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11495,10 +11507,10 @@
         <v>0.8</v>
       </c>
       <c r="AS55">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT55">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>1.26</v>
@@ -11599,7 +11611,7 @@
         <v>98</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11686,10 +11698,10 @@
         <v>1.2</v>
       </c>
       <c r="AS56">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT56">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12068,7 +12080,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT58">
         <v>1.14</v>
@@ -12453,7 +12465,7 @@
         <v>1.53</v>
       </c>
       <c r="AT60">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU60">
         <v>1.73</v>
@@ -12641,7 +12653,7 @@
         <v>2.33</v>
       </c>
       <c r="AS61">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT61">
         <v>1.87</v>
@@ -13026,7 +13038,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU63">
         <v>0.9399999999999999</v>
@@ -13127,7 +13139,7 @@
         <v>101</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13318,7 +13330,7 @@
         <v>78</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13405,10 +13417,10 @@
         <v>1.17</v>
       </c>
       <c r="AS65">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT65">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU65">
         <v>1.54</v>
@@ -13978,7 +13990,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT68">
         <v>1.07</v>
@@ -14745,7 +14757,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU72">
         <v>0.9399999999999999</v>
@@ -15124,7 +15136,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT74">
         <v>1.06</v>
@@ -15318,7 +15330,7 @@
         <v>1.64</v>
       </c>
       <c r="AT75">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU75">
         <v>1.58</v>
@@ -15419,7 +15431,7 @@
         <v>104</v>
       </c>
       <c r="P76" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15506,7 +15518,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT76">
         <v>1.07</v>
@@ -15697,10 +15709,10 @@
         <v>0.8</v>
       </c>
       <c r="AS77">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT77">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -16374,7 +16386,7 @@
         <v>106</v>
       </c>
       <c r="P81" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16565,7 +16577,7 @@
         <v>107</v>
       </c>
       <c r="P82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16652,7 +16664,7 @@
         <v>1.57</v>
       </c>
       <c r="AS82">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT82">
         <v>1.14</v>
@@ -16756,7 +16768,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16846,7 +16858,7 @@
         <v>0.71</v>
       </c>
       <c r="AT83">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -17037,7 +17049,7 @@
         <v>1.53</v>
       </c>
       <c r="AT84">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU84">
         <v>1.73</v>
@@ -17225,7 +17237,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT85">
         <v>1.73</v>
@@ -17329,7 +17341,7 @@
         <v>78</v>
       </c>
       <c r="P86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17416,10 +17428,10 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT86">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU86">
         <v>1.93</v>
@@ -17520,7 +17532,7 @@
         <v>109</v>
       </c>
       <c r="P87" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17607,7 +17619,7 @@
         <v>0.86</v>
       </c>
       <c r="AS87">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT87">
         <v>1.07</v>
@@ -17711,7 +17723,7 @@
         <v>110</v>
       </c>
       <c r="P88" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17902,7 +17914,7 @@
         <v>111</v>
       </c>
       <c r="P89" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18093,7 +18105,7 @@
         <v>78</v>
       </c>
       <c r="P90" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18666,7 +18678,7 @@
         <v>113</v>
       </c>
       <c r="P93" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18753,10 +18765,10 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT93">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU93">
         <v>1.8</v>
@@ -18857,7 +18869,7 @@
         <v>114</v>
       </c>
       <c r="P94" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18947,7 +18959,7 @@
         <v>1.6</v>
       </c>
       <c r="AT94">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19239,7 +19251,7 @@
         <v>102</v>
       </c>
       <c r="P96" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19326,7 +19338,7 @@
         <v>1.63</v>
       </c>
       <c r="AS96">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT96">
         <v>1.5</v>
@@ -19430,7 +19442,7 @@
         <v>115</v>
       </c>
       <c r="P97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q97">
         <v>8</v>
@@ -19517,7 +19529,7 @@
         <v>1.13</v>
       </c>
       <c r="AS97">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT97">
         <v>1.07</v>
@@ -19711,7 +19723,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU98">
         <v>0.9399999999999999</v>
@@ -20281,10 +20293,10 @@
         <v>2.14</v>
       </c>
       <c r="AS101">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT101">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -20385,7 +20397,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20475,7 +20487,7 @@
         <v>0.93</v>
       </c>
       <c r="AT102">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU102">
         <v>1.42</v>
@@ -20767,7 +20779,7 @@
         <v>120</v>
       </c>
       <c r="P104" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -20857,7 +20869,7 @@
         <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.32</v>
@@ -21149,7 +21161,7 @@
         <v>121</v>
       </c>
       <c r="P106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21236,7 +21248,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT106">
         <v>1.14</v>
@@ -21531,7 +21543,7 @@
         <v>122</v>
       </c>
       <c r="P108" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21722,7 +21734,7 @@
         <v>123</v>
       </c>
       <c r="P109" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22000,10 +22012,10 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT110">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22104,7 +22116,7 @@
         <v>124</v>
       </c>
       <c r="P111" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -22191,10 +22203,10 @@
         <v>0.57</v>
       </c>
       <c r="AS111">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT111">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU111">
         <v>1.44</v>
@@ -22295,7 +22307,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q112">
         <v>10</v>
@@ -22573,7 +22585,7 @@
         <v>1.78</v>
       </c>
       <c r="AS113">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT113">
         <v>1.5</v>
@@ -22767,7 +22779,7 @@
         <v>1.53</v>
       </c>
       <c r="AT114">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU114">
         <v>1.73</v>
@@ -22868,7 +22880,7 @@
         <v>126</v>
       </c>
       <c r="P115" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23059,7 +23071,7 @@
         <v>106</v>
       </c>
       <c r="P116" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23250,7 +23262,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23441,7 +23453,7 @@
         <v>128</v>
       </c>
       <c r="P118" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23531,7 +23543,7 @@
         <v>1.27</v>
       </c>
       <c r="AT118">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU118">
         <v>1.46</v>
@@ -23722,7 +23734,7 @@
         <v>1.6</v>
       </c>
       <c r="AT119">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU119">
         <v>1.38</v>
@@ -23910,10 +23922,10 @@
         <v>1.3</v>
       </c>
       <c r="AS120">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT120">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24014,7 +24026,7 @@
         <v>130</v>
       </c>
       <c r="P121" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -24101,7 +24113,7 @@
         <v>1.89</v>
       </c>
       <c r="AS121">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT121">
         <v>1.87</v>
@@ -24292,7 +24304,7 @@
         <v>1.3</v>
       </c>
       <c r="AS122">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT122">
         <v>1.14</v>
@@ -24396,7 +24408,7 @@
         <v>78</v>
       </c>
       <c r="P123" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24674,7 +24686,7 @@
         <v>1.18</v>
       </c>
       <c r="AS124">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT124">
         <v>1.14</v>
@@ -24778,7 +24790,7 @@
         <v>133</v>
       </c>
       <c r="P125" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25542,7 +25554,7 @@
         <v>78</v>
       </c>
       <c r="P129" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25632,7 +25644,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU129">
         <v>1.15</v>
@@ -25823,7 +25835,7 @@
         <v>1.56</v>
       </c>
       <c r="AT130">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -25924,7 +25936,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q131">
         <v>9</v>
@@ -26011,7 +26023,7 @@
         <v>0.91</v>
       </c>
       <c r="AS131">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT131">
         <v>1.07</v>
@@ -26202,7 +26214,7 @@
         <v>0.7</v>
       </c>
       <c r="AS132">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT132">
         <v>0.93</v>
@@ -26393,10 +26405,10 @@
         <v>1.45</v>
       </c>
       <c r="AS133">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT133">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU133">
         <v>1.37</v>
@@ -26775,10 +26787,10 @@
         <v>1.78</v>
       </c>
       <c r="AS135">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT135">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU135">
         <v>1.69</v>
@@ -27452,7 +27464,7 @@
         <v>78</v>
       </c>
       <c r="P139" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -27643,7 +27655,7 @@
         <v>136</v>
       </c>
       <c r="P140" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -27921,7 +27933,7 @@
         <v>1</v>
       </c>
       <c r="AS141">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT141">
         <v>1.06</v>
@@ -28112,10 +28124,10 @@
         <v>0.8</v>
       </c>
       <c r="AS142">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT142">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU142">
         <v>1.37</v>
@@ -28216,7 +28228,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28407,7 +28419,7 @@
         <v>140</v>
       </c>
       <c r="P144" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -28494,10 +28506,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT144">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU144">
         <v>1.69</v>
@@ -28685,7 +28697,7 @@
         <v>0.92</v>
       </c>
       <c r="AS145">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT145">
         <v>0.93</v>
@@ -29171,7 +29183,7 @@
         <v>143</v>
       </c>
       <c r="P148" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29261,7 +29273,7 @@
         <v>1.56</v>
       </c>
       <c r="AT148">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU148">
         <v>1.62</v>
@@ -29362,7 +29374,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29643,7 +29655,7 @@
         <v>0.71</v>
       </c>
       <c r="AT150">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU150">
         <v>1.56</v>
@@ -29831,10 +29843,10 @@
         <v>0.62</v>
       </c>
       <c r="AS151">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT151">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU151">
         <v>1.68</v>
@@ -30025,7 +30037,7 @@
         <v>1.53</v>
       </c>
       <c r="AT152">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU152">
         <v>1.73</v>
@@ -30317,7 +30329,7 @@
         <v>145</v>
       </c>
       <c r="P154" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30404,10 +30416,10 @@
         <v>0.75</v>
       </c>
       <c r="AS154">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT154">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30508,7 +30520,7 @@
         <v>146</v>
       </c>
       <c r="P155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -30595,7 +30607,7 @@
         <v>1.75</v>
       </c>
       <c r="AS155">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT155">
         <v>1.87</v>
@@ -30977,7 +30989,7 @@
         <v>1.77</v>
       </c>
       <c r="AS157">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT157">
         <v>1.5</v>
@@ -31081,7 +31093,7 @@
         <v>78</v>
       </c>
       <c r="P158" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31272,7 +31284,7 @@
         <v>147</v>
       </c>
       <c r="P159" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31463,7 +31475,7 @@
         <v>148</v>
       </c>
       <c r="P160" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31845,7 +31857,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -31935,7 +31947,7 @@
         <v>0.93</v>
       </c>
       <c r="AT162">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU162">
         <v>1.3</v>
@@ -32036,7 +32048,7 @@
         <v>150</v>
       </c>
       <c r="P163" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32126,7 +32138,7 @@
         <v>1.5</v>
       </c>
       <c r="AT163">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32227,7 +32239,7 @@
         <v>78</v>
       </c>
       <c r="P164" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32418,7 +32430,7 @@
         <v>151</v>
       </c>
       <c r="P165" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32508,7 +32520,7 @@
         <v>1.53</v>
       </c>
       <c r="AT165">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU165">
         <v>1.73</v>
@@ -32609,7 +32621,7 @@
         <v>78</v>
       </c>
       <c r="P166" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32696,7 +32708,7 @@
         <v>1.77</v>
       </c>
       <c r="AS166">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT166">
         <v>1.73</v>
@@ -33081,7 +33093,7 @@
         <v>1.5</v>
       </c>
       <c r="AT168">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU168">
         <v>1.62</v>
@@ -33269,7 +33281,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT169">
         <v>0.93</v>
@@ -33651,7 +33663,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT171">
         <v>1.06</v>
@@ -33755,7 +33767,7 @@
         <v>155</v>
       </c>
       <c r="P172" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -33842,7 +33854,7 @@
         <v>1.23</v>
       </c>
       <c r="AS172">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT172">
         <v>1.14</v>
@@ -33946,7 +33958,7 @@
         <v>156</v>
       </c>
       <c r="P173" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34519,7 +34531,7 @@
         <v>158</v>
       </c>
       <c r="P176" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34609,7 +34621,7 @@
         <v>1.64</v>
       </c>
       <c r="AT176">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU176">
         <v>1.19</v>
@@ -35234,6 +35246,770 @@
       </c>
       <c r="BK179">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2496840</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F180">
+        <v>31</v>
+      </c>
+      <c r="G180" t="s">
+        <v>69</v>
+      </c>
+      <c r="H180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>78</v>
+      </c>
+      <c r="P180" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>-1</v>
+      </c>
+      <c r="S180">
+        <v>-1</v>
+      </c>
+      <c r="T180">
+        <v>1.8</v>
+      </c>
+      <c r="U180">
+        <v>2.5</v>
+      </c>
+      <c r="V180">
+        <v>6.5</v>
+      </c>
+      <c r="W180">
+        <v>1.28</v>
+      </c>
+      <c r="X180">
+        <v>3.3</v>
+      </c>
+      <c r="Y180">
+        <v>2.35</v>
+      </c>
+      <c r="Z180">
+        <v>1.53</v>
+      </c>
+      <c r="AA180">
+        <v>5.2</v>
+      </c>
+      <c r="AB180">
+        <v>1.12</v>
+      </c>
+      <c r="AC180">
+        <v>1.37</v>
+      </c>
+      <c r="AD180">
+        <v>5.4</v>
+      </c>
+      <c r="AE180">
+        <v>6.6</v>
+      </c>
+      <c r="AF180">
+        <v>1.02</v>
+      </c>
+      <c r="AG180">
+        <v>18</v>
+      </c>
+      <c r="AH180">
+        <v>1.18</v>
+      </c>
+      <c r="AI180">
+        <v>4.23</v>
+      </c>
+      <c r="AJ180">
+        <v>1.59</v>
+      </c>
+      <c r="AK180">
+        <v>2.21</v>
+      </c>
+      <c r="AL180">
+        <v>1.85</v>
+      </c>
+      <c r="AM180">
+        <v>1.85</v>
+      </c>
+      <c r="AN180">
+        <v>1.1</v>
+      </c>
+      <c r="AO180">
+        <v>1.15</v>
+      </c>
+      <c r="AP180">
+        <v>2.65</v>
+      </c>
+      <c r="AQ180">
+        <v>2.47</v>
+      </c>
+      <c r="AR180">
+        <v>0.73</v>
+      </c>
+      <c r="AS180">
+        <v>2.31</v>
+      </c>
+      <c r="AT180">
+        <v>0.88</v>
+      </c>
+      <c r="AU180">
+        <v>1.68</v>
+      </c>
+      <c r="AV180">
+        <v>1.3</v>
+      </c>
+      <c r="AW180">
+        <v>2.98</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>-1</v>
+      </c>
+      <c r="BG180">
+        <v>-1</v>
+      </c>
+      <c r="BH180">
+        <v>-1</v>
+      </c>
+      <c r="BI180">
+        <v>-1</v>
+      </c>
+      <c r="BJ180">
+        <v>-1</v>
+      </c>
+      <c r="BK180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2496837</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F181">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>65</v>
+      </c>
+      <c r="H181" t="s">
+        <v>66</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181" t="s">
+        <v>82</v>
+      </c>
+      <c r="P181" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>-1</v>
+      </c>
+      <c r="S181">
+        <v>-1</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+      <c r="AC181">
+        <v>2.5</v>
+      </c>
+      <c r="AD181">
+        <v>3.23</v>
+      </c>
+      <c r="AE181">
+        <v>2.5</v>
+      </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>0</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>1.61</v>
+      </c>
+      <c r="AK181">
+        <v>2.18</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>0</v>
+      </c>
+      <c r="AO181">
+        <v>0</v>
+      </c>
+      <c r="AP181">
+        <v>0</v>
+      </c>
+      <c r="AQ181">
+        <v>2.21</v>
+      </c>
+      <c r="AR181">
+        <v>1.14</v>
+      </c>
+      <c r="AS181">
+        <v>2.07</v>
+      </c>
+      <c r="AT181">
+        <v>1.27</v>
+      </c>
+      <c r="AU181">
+        <v>1.39</v>
+      </c>
+      <c r="AV181">
+        <v>1.44</v>
+      </c>
+      <c r="AW181">
+        <v>2.83</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>-1</v>
+      </c>
+      <c r="BG181">
+        <v>-1</v>
+      </c>
+      <c r="BH181">
+        <v>-1</v>
+      </c>
+      <c r="BI181">
+        <v>-1</v>
+      </c>
+      <c r="BJ181">
+        <v>-1</v>
+      </c>
+      <c r="BK181">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2496838</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F182">
+        <v>31</v>
+      </c>
+      <c r="G182" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" t="s">
+        <v>67</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>160</v>
+      </c>
+      <c r="P182" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>4</v>
+      </c>
+      <c r="S182">
+        <v>8</v>
+      </c>
+      <c r="T182">
+        <v>2.88</v>
+      </c>
+      <c r="U182">
+        <v>2.3</v>
+      </c>
+      <c r="V182">
+        <v>3</v>
+      </c>
+      <c r="W182">
+        <v>1.25</v>
+      </c>
+      <c r="X182">
+        <v>3.44</v>
+      </c>
+      <c r="Y182">
+        <v>2.3</v>
+      </c>
+      <c r="Z182">
+        <v>1.55</v>
+      </c>
+      <c r="AA182">
+        <v>4.7</v>
+      </c>
+      <c r="AB182">
+        <v>1.15</v>
+      </c>
+      <c r="AC182">
+        <v>2.35</v>
+      </c>
+      <c r="AD182">
+        <v>3.5</v>
+      </c>
+      <c r="AE182">
+        <v>2.55</v>
+      </c>
+      <c r="AF182">
+        <v>1.02</v>
+      </c>
+      <c r="AG182">
+        <v>18</v>
+      </c>
+      <c r="AH182">
+        <v>1.17</v>
+      </c>
+      <c r="AI182">
+        <v>4.43</v>
+      </c>
+      <c r="AJ182">
+        <v>1.56</v>
+      </c>
+      <c r="AK182">
+        <v>2.32</v>
+      </c>
+      <c r="AL182">
+        <v>1.5</v>
+      </c>
+      <c r="AM182">
+        <v>2.4</v>
+      </c>
+      <c r="AN182">
+        <v>1.48</v>
+      </c>
+      <c r="AO182">
+        <v>1.26</v>
+      </c>
+      <c r="AP182">
+        <v>1.52</v>
+      </c>
+      <c r="AQ182">
+        <v>1.53</v>
+      </c>
+      <c r="AR182">
+        <v>1.92</v>
+      </c>
+      <c r="AS182">
+        <v>1.63</v>
+      </c>
+      <c r="AT182">
+        <v>1.79</v>
+      </c>
+      <c r="AU182">
+        <v>1.37</v>
+      </c>
+      <c r="AV182">
+        <v>1.37</v>
+      </c>
+      <c r="AW182">
+        <v>2.74</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>5</v>
+      </c>
+      <c r="BG182">
+        <v>5</v>
+      </c>
+      <c r="BH182">
+        <v>7</v>
+      </c>
+      <c r="BI182">
+        <v>9</v>
+      </c>
+      <c r="BJ182">
+        <v>12</v>
+      </c>
+      <c r="BK182">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2496842</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F183">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183" t="s">
+        <v>73</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>161</v>
+      </c>
+      <c r="P183" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q183">
+        <v>5</v>
+      </c>
+      <c r="R183">
+        <v>4</v>
+      </c>
+      <c r="S183">
+        <v>9</v>
+      </c>
+      <c r="T183">
+        <v>2.3</v>
+      </c>
+      <c r="U183">
+        <v>2.38</v>
+      </c>
+      <c r="V183">
+        <v>4</v>
+      </c>
+      <c r="W183">
+        <v>1.3</v>
+      </c>
+      <c r="X183">
+        <v>3.24</v>
+      </c>
+      <c r="Y183">
+        <v>2.4</v>
+      </c>
+      <c r="Z183">
+        <v>1.53</v>
+      </c>
+      <c r="AA183">
+        <v>5.6</v>
+      </c>
+      <c r="AB183">
+        <v>1.11</v>
+      </c>
+      <c r="AC183">
+        <v>1.72</v>
+      </c>
+      <c r="AD183">
+        <v>4</v>
+      </c>
+      <c r="AE183">
+        <v>3.5</v>
+      </c>
+      <c r="AF183">
+        <v>1.02</v>
+      </c>
+      <c r="AG183">
+        <v>17.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.2</v>
+      </c>
+      <c r="AI183">
+        <v>4.07</v>
+      </c>
+      <c r="AJ183">
+        <v>1.63</v>
+      </c>
+      <c r="AK183">
+        <v>2.18</v>
+      </c>
+      <c r="AL183">
+        <v>1.65</v>
+      </c>
+      <c r="AM183">
+        <v>2.1</v>
+      </c>
+      <c r="AN183">
+        <v>1.23</v>
+      </c>
+      <c r="AO183">
+        <v>1.22</v>
+      </c>
+      <c r="AP183">
+        <v>2.05</v>
+      </c>
+      <c r="AQ183">
+        <v>2.07</v>
+      </c>
+      <c r="AR183">
+        <v>0.53</v>
+      </c>
+      <c r="AS183">
+        <v>2.13</v>
+      </c>
+      <c r="AT183">
+        <v>0.5</v>
+      </c>
+      <c r="AU183">
+        <v>1.82</v>
+      </c>
+      <c r="AV183">
+        <v>1.38</v>
+      </c>
+      <c r="AW183">
+        <v>3.2</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>7</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>7</v>
+      </c>
+      <c r="BI183">
+        <v>2</v>
+      </c>
+      <c r="BJ183">
+        <v>14</v>
+      </c>
+      <c r="BK183">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,7 +1960,7 @@
         <v>1.63</v>
       </c>
       <c r="AT5">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT7">
         <v>0.88</v>
@@ -3679,7 +3679,7 @@
         <v>2.07</v>
       </c>
       <c r="AT14">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT19">
         <v>0.5</v>
@@ -6732,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT30">
         <v>1.5</v>
@@ -6926,7 +6926,7 @@
         <v>2.13</v>
       </c>
       <c r="AT31">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT32">
         <v>1.27</v>
@@ -7690,7 +7690,7 @@
         <v>1.53</v>
       </c>
       <c r="AT35">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU35">
         <v>1.73</v>
@@ -11319,7 +11319,7 @@
         <v>0.93</v>
       </c>
       <c r="AT54">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU54">
         <v>1.49</v>
@@ -12274,7 +12274,7 @@
         <v>1.64</v>
       </c>
       <c r="AT59">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU59">
         <v>1.69</v>
@@ -13608,7 +13608,7 @@
         <v>1.6</v>
       </c>
       <c r="AS66">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT66">
         <v>1.14</v>
@@ -13993,7 +13993,7 @@
         <v>2.31</v>
       </c>
       <c r="AT68">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -16855,7 +16855,7 @@
         <v>0.57</v>
       </c>
       <c r="AS83">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT83">
         <v>0.5</v>
@@ -17622,7 +17622,7 @@
         <v>1.63</v>
       </c>
       <c r="AT87">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU87">
         <v>1.61</v>
@@ -18192,7 +18192,7 @@
         <v>2.17</v>
       </c>
       <c r="AS90">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT90">
         <v>1.87</v>
@@ -19532,7 +19532,7 @@
         <v>2.13</v>
       </c>
       <c r="AT97">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU97">
         <v>1.73</v>
@@ -20675,7 +20675,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT103">
         <v>1.73</v>
@@ -21821,7 +21821,7 @@
         <v>0.78</v>
       </c>
       <c r="AS109">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT109">
         <v>1.07</v>
@@ -22397,7 +22397,7 @@
         <v>0.93</v>
       </c>
       <c r="AT112">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU112">
         <v>1.35</v>
@@ -24495,7 +24495,7 @@
         <v>0.44</v>
       </c>
       <c r="AS123">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT123">
         <v>0.93</v>
@@ -24877,7 +24877,7 @@
         <v>1.44</v>
       </c>
       <c r="AS125">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT125">
         <v>1.73</v>
@@ -25068,7 +25068,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT126">
         <v>1.5</v>
@@ -25453,7 +25453,7 @@
         <v>1.53</v>
       </c>
       <c r="AT128">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU128">
         <v>1.73</v>
@@ -27745,7 +27745,7 @@
         <v>1.64</v>
       </c>
       <c r="AT140">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU140">
         <v>1.26</v>
@@ -29652,7 +29652,7 @@
         <v>1.9</v>
       </c>
       <c r="AS150">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT150">
         <v>1.79</v>
@@ -31374,7 +31374,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU159">
         <v>1.42</v>
@@ -31753,7 +31753,7 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT161">
         <v>1.07</v>
@@ -32902,7 +32902,7 @@
         <v>1.27</v>
       </c>
       <c r="AT167">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU167">
         <v>1.5</v>
@@ -34048,7 +34048,7 @@
         <v>1.27</v>
       </c>
       <c r="AT173">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU173">
         <v>1.5</v>
@@ -36010,6 +36010,197 @@
       </c>
       <c r="BK183">
         <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2496841</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44999.69791666666</v>
+      </c>
+      <c r="F184">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>70</v>
+      </c>
+      <c r="H184" t="s">
+        <v>71</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>77</v>
+      </c>
+      <c r="P184" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
+        <v>-1</v>
+      </c>
+      <c r="S184">
+        <v>-1</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>0</v>
+      </c>
+      <c r="AD184">
+        <v>0</v>
+      </c>
+      <c r="AE184">
+        <v>0</v>
+      </c>
+      <c r="AF184">
+        <v>0</v>
+      </c>
+      <c r="AG184">
+        <v>0</v>
+      </c>
+      <c r="AH184">
+        <v>0</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
+      <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <v>0</v>
+      </c>
+      <c r="AO184">
+        <v>0</v>
+      </c>
+      <c r="AP184">
+        <v>0</v>
+      </c>
+      <c r="AQ184">
+        <v>0.71</v>
+      </c>
+      <c r="AR184">
+        <v>1.07</v>
+      </c>
+      <c r="AS184">
+        <v>0.73</v>
+      </c>
+      <c r="AT184">
+        <v>1.06</v>
+      </c>
+      <c r="AU184">
+        <v>1.56</v>
+      </c>
+      <c r="AV184">
+        <v>1.72</v>
+      </c>
+      <c r="AW184">
+        <v>3.28</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>-1</v>
+      </c>
+      <c r="BG184">
+        <v>-1</v>
+      </c>
+      <c r="BH184">
+        <v>-1</v>
+      </c>
+      <c r="BI184">
+        <v>-1</v>
+      </c>
+      <c r="BJ184">
+        <v>-1</v>
+      </c>
+      <c r="BK184">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.07</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT3" t="n">
         <v>1.14</v>
@@ -1715,7 +1715,7 @@
         <v>2.31</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT8" t="n">
         <v>1.87</v>
@@ -2324,7 +2324,7 @@
         <v>2.13</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2730,7 +2730,7 @@
         <v>0.93</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>1.06</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT13" t="n">
         <v>1.27</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>0.88</v>
@@ -3948,7 +3948,7 @@
         <v>1.63</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.31</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU18" t="n">
         <v>1.67</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT20" t="n">
         <v>1.27</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT21" t="n">
         <v>1.14</v>
@@ -4963,7 +4963,7 @@
         <v>1.56</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU22" t="n">
         <v>2.46</v>
@@ -5569,10 +5569,10 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU25" t="n">
         <v>1.37</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>2.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU33" t="n">
         <v>1.67</v>
@@ -7399,7 +7399,7 @@
         <v>0.93</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU34" t="n">
         <v>1.84</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1.06</v>
@@ -7802,7 +7802,7 @@
         <v>0.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU38" t="n">
         <v>0.96</v>
@@ -8411,10 +8411,10 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU39" t="n">
         <v>1.3</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT42" t="n">
         <v>1.27</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT44" t="n">
         <v>0.88</v>
@@ -10238,10 +10238,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>2.07</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>2.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT51" t="n">
         <v>1.87</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU52" t="n">
         <v>0.96</v>
@@ -12068,7 +12068,7 @@
         <v>1.56</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>1.9</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT59" t="n">
         <v>1.06</v>
@@ -12674,7 +12674,7 @@
         <v>0.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5</v>
@@ -13083,7 +13083,7 @@
         <v>0.93</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU62" t="n">
         <v>1.51</v>
@@ -13283,10 +13283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU63" t="n">
         <v>0.9399999999999999</v>
@@ -13486,7 +13486,7 @@
         <v>2.4</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.56</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU67" t="n">
         <v>1.97</v>
@@ -14501,10 +14501,10 @@
         <v>0.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU69" t="n">
         <v>1.58</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT70" t="n">
         <v>1.5</v>
@@ -15110,7 +15110,7 @@
         <v>0.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT72" t="n">
         <v>0.88</v>
@@ -15313,7 +15313,7 @@
         <v>1.83</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT73" t="n">
         <v>1.14</v>
@@ -15719,10 +15719,10 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU75" t="n">
         <v>1.58</v>
@@ -15925,7 +15925,7 @@
         <v>2.13</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,10 +16328,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.4</v>
@@ -16734,10 +16734,10 @@
         <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU80" t="n">
         <v>0.9399999999999999</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT81" t="n">
         <v>1.06</v>
@@ -17546,7 +17546,7 @@
         <v>1.43</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
         <v>1.27</v>
@@ -17752,7 +17752,7 @@
         <v>2.07</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU85" t="n">
         <v>1.63</v>
@@ -17955,7 +17955,7 @@
         <v>2.31</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU86" t="n">
         <v>1.93</v>
@@ -18358,10 +18358,10 @@
         <v>0.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU88" t="n">
         <v>0.96</v>
@@ -18967,10 +18967,10 @@
         <v>0.57</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU91" t="n">
         <v>1.4</v>
@@ -19576,7 +19576,7 @@
         <v>1.38</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT94" t="n">
         <v>1.27</v>
@@ -20388,7 +20388,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT98" t="n">
         <v>0.5</v>
@@ -20591,7 +20591,7 @@
         <v>2.29</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT99" t="n">
         <v>1.87</v>
@@ -20794,10 +20794,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU100" t="n">
         <v>1.73</v>
@@ -21000,7 +21000,7 @@
         <v>2.07</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>0.73</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU103" t="n">
         <v>1.55</v>
@@ -21606,7 +21606,7 @@
         <v>0.78</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT104" t="n">
         <v>0.5</v>
@@ -21809,10 +21809,10 @@
         <v>0.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22215,7 +22215,7 @@
         <v>1.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT107" t="n">
         <v>1.06</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT108" t="n">
         <v>1.87</v>
@@ -22624,7 +22624,7 @@
         <v>0.73</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU109" t="n">
         <v>1.24</v>
@@ -23636,7 +23636,7 @@
         <v>0.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT114" t="n">
         <v>0.88</v>
@@ -23839,10 +23839,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24042,7 +24042,7 @@
         <v>1.11</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT116" t="n">
         <v>1.06</v>
@@ -24248,7 +24248,7 @@
         <v>1.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24448,7 +24448,7 @@
         <v>0.73</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT118" t="n">
         <v>0.5</v>
@@ -24651,10 +24651,10 @@
         <v>1.88</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU119" t="n">
         <v>1.38</v>
@@ -25466,7 +25466,7 @@
         <v>0.73</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU123" t="n">
         <v>1.52</v>
@@ -25872,7 +25872,7 @@
         <v>0.73</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU125" t="n">
         <v>1.56</v>
@@ -26478,7 +26478,7 @@
         <v>1.2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT128" t="n">
         <v>1.06</v>
@@ -26681,7 +26681,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT129" t="n">
         <v>0.88</v>
@@ -27090,7 +27090,7 @@
         <v>2.13</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU131" t="n">
         <v>1.72</v>
@@ -27293,7 +27293,7 @@
         <v>2.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU132" t="n">
         <v>1.47</v>
@@ -27696,7 +27696,7 @@
         <v>1.1</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT134" t="n">
         <v>1.06</v>
@@ -27902,7 +27902,7 @@
         <v>2.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU135" t="n">
         <v>1.69</v>
@@ -28102,10 +28102,10 @@
         <v>1.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU136" t="n">
         <v>1.41</v>
@@ -28305,7 +28305,7 @@
         <v>1.73</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT137" t="n">
         <v>1.5</v>
@@ -28508,7 +28508,7 @@
         <v>1.64</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
         <v>1.87</v>
@@ -28914,7 +28914,7 @@
         <v>1.09</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT140" t="n">
         <v>1.06</v>
@@ -29523,10 +29523,10 @@
         <v>0.73</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU143" t="n">
         <v>1.16</v>
@@ -29932,7 +29932,7 @@
         <v>2.13</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU145" t="n">
         <v>1.78</v>
@@ -30132,7 +30132,7 @@
         <v>0.92</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT146" t="n">
         <v>1.06</v>
@@ -30335,10 +30335,10 @@
         <v>1.73</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU147" t="n">
         <v>1.73</v>
@@ -30744,7 +30744,7 @@
         <v>0.93</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU149" t="n">
         <v>1.33</v>
@@ -30947,7 +30947,7 @@
         <v>0.73</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU150" t="n">
         <v>1.56</v>
@@ -31350,7 +31350,7 @@
         <v>1.23</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1.27</v>
@@ -31553,10 +31553,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU153" t="n">
         <v>1.41</v>
@@ -32162,7 +32162,7 @@
         <v>1.08</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT156" t="n">
         <v>1.14</v>
@@ -32568,7 +32568,7 @@
         <v>0.85</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT158" t="n">
         <v>1.06</v>
@@ -32771,7 +32771,7 @@
         <v>1.08</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT159" t="n">
         <v>1.06</v>
@@ -32977,7 +32977,7 @@
         <v>1.56</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU160" t="n">
         <v>1.69</v>
@@ -33180,7 +33180,7 @@
         <v>0.73</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU161" t="n">
         <v>1.56</v>
@@ -33583,7 +33583,7 @@
         <v>0.57</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT163" t="n">
         <v>0.5</v>
@@ -33786,7 +33786,7 @@
         <v>1.85</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT164" t="n">
         <v>1.87</v>
@@ -33989,10 +33989,10 @@
         <v>2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU165" t="n">
         <v>1.73</v>
@@ -34195,7 +34195,7 @@
         <v>2.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU166" t="n">
         <v>1.53</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT167" t="n">
         <v>1.06</v>
@@ -34598,10 +34598,10 @@
         <v>2.08</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU168" t="n">
         <v>1.62</v>
@@ -34804,7 +34804,7 @@
         <v>1.63</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU169" t="n">
         <v>1.37</v>
@@ -35004,7 +35004,7 @@
         <v>1.71</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT170" t="n">
         <v>1.5</v>
@@ -35613,7 +35613,7 @@
         <v>1.14</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT173" t="n">
         <v>1.06</v>
@@ -35816,7 +35816,7 @@
         <v>1.6</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT174" t="n">
         <v>1.5</v>
@@ -36222,7 +36222,7 @@
         <v>0.71</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT176" t="n">
         <v>0.88</v>
@@ -36428,7 +36428,7 @@
         <v>1.56</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU177" t="n">
         <v>1.76</v>
@@ -36628,7 +36628,7 @@
         <v>1.93</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT178" t="n">
         <v>1.87</v>
@@ -36831,10 +36831,10 @@
         <v>1.14</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU179" t="n">
         <v>1.62</v>
@@ -37443,7 +37443,7 @@
         <v>1.63</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU182" t="n">
         <v>1.37</v>
@@ -37900,6 +37900,1021 @@
         <v>-1</v>
       </c>
       <c r="BK184" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2496843</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>32</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Ards</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Knockbreda</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>4</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>5</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>8</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2</v>
+      </c>
+      <c r="S185" t="n">
+        <v>10</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V185" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X185" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2496844</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>32</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Ballinamallard United</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Newington Youth</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>4</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>0</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2496847</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Institute</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>H&amp;W Welders</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>6</v>
+      </c>
+      <c r="R187" t="n">
+        <v>4</v>
+      </c>
+      <c r="S187" t="n">
+        <v>10</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2496845</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Ballyclare Comrades</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Warrenpoint Town</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>3</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>1</v>
+      </c>
+      <c r="R188" t="n">
+        <v>4</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2496846</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>32</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Dergview</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Dundela</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>0</v>
+      </c>
+      <c r="V189" t="n">
+        <v>0</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK189" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1065,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1590,7 +1590,7 @@
         <v>1.59</v>
       </c>
       <c r="AT3">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT6">
         <v>1.63</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT18">
         <v>0.88</v>
@@ -5025,10 +5025,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT29">
         <v>0.88</v>
@@ -6747,7 +6747,7 @@
         <v>0.73</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT33">
         <v>1.19</v>
@@ -8084,7 +8084,7 @@
         <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         <v>2.13</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT41">
         <v>1.06</v>
@@ -9036,7 +9036,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
         <v>1.27</v>
@@ -9230,7 +9230,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU43">
         <v>2.46</v>
@@ -9803,7 +9803,7 @@
         <v>0.93</v>
       </c>
       <c r="AT46">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU46">
         <v>1.53</v>
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT47">
         <v>0.5</v>
@@ -10567,7 +10567,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU50">
         <v>1.73</v>
@@ -12092,10 +12092,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU58">
         <v>1.93</v>
@@ -12283,7 +12283,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
         <v>1.06</v>
@@ -13241,7 +13241,7 @@
         <v>1.69</v>
       </c>
       <c r="AT64">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13623,7 +13623,7 @@
         <v>0.73</v>
       </c>
       <c r="AT66">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT68">
         <v>1.06</v>
@@ -14193,7 +14193,7 @@
         <v>0.6</v>
       </c>
       <c r="AS69">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT69">
         <v>0.88</v>
@@ -14387,7 +14387,7 @@
         <v>1.19</v>
       </c>
       <c r="AT70">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU70">
         <v>0.96</v>
@@ -14960,7 +14960,7 @@
         <v>1.69</v>
       </c>
       <c r="AT73">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU73">
         <v>1.27</v>
@@ -15339,7 +15339,7 @@
         <v>1.8</v>
       </c>
       <c r="AS75">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT75">
         <v>1.87</v>
@@ -15912,7 +15912,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT78">
         <v>0.88</v>
@@ -16679,7 +16679,7 @@
         <v>2.13</v>
       </c>
       <c r="AT82">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -17440,7 +17440,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT86">
         <v>1.87</v>
@@ -18016,7 +18016,7 @@
         <v>0.93</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18395,7 +18395,7 @@
         <v>0.57</v>
       </c>
       <c r="AS91">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
         <v>1.19</v>
@@ -18589,7 +18589,7 @@
         <v>1.56</v>
       </c>
       <c r="AT92">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.86</v>
@@ -19353,7 +19353,7 @@
         <v>1.63</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU96">
         <v>1.46</v>
@@ -21260,10 +21260,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT106">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU106">
         <v>1.77</v>
@@ -21642,7 +21642,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT108">
         <v>1.87</v>
@@ -22597,10 +22597,10 @@
         <v>1.78</v>
       </c>
       <c r="AS113">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU113">
         <v>1.69</v>
@@ -22979,7 +22979,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT115">
         <v>1.63</v>
@@ -24319,7 +24319,7 @@
         <v>2.07</v>
       </c>
       <c r="AT122">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.5</v>
@@ -24701,7 +24701,7 @@
         <v>1.63</v>
       </c>
       <c r="AT124">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU124">
         <v>1.37</v>
@@ -25083,7 +25083,7 @@
         <v>0.73</v>
       </c>
       <c r="AT126">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU126">
         <v>1.56</v>
@@ -26799,7 +26799,7 @@
         <v>1.78</v>
       </c>
       <c r="AS135">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT135">
         <v>1.87</v>
@@ -27184,7 +27184,7 @@
         <v>1.59</v>
       </c>
       <c r="AT137">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU137">
         <v>1.16</v>
@@ -27566,7 +27566,7 @@
         <v>1.56</v>
       </c>
       <c r="AT139">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU139">
         <v>1.76</v>
@@ -27754,7 +27754,7 @@
         <v>1.09</v>
       </c>
       <c r="AS140">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT140">
         <v>1.06</v>
@@ -28518,7 +28518,7 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT144">
         <v>1.27</v>
@@ -29855,7 +29855,7 @@
         <v>0.62</v>
       </c>
       <c r="AS151">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT151">
         <v>0.5</v>
@@ -30813,7 +30813,7 @@
         <v>1.19</v>
       </c>
       <c r="AT156">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU156">
         <v>1.5</v>
@@ -31004,7 +31004,7 @@
         <v>1.63</v>
       </c>
       <c r="AT157">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU157">
         <v>1.43</v>
@@ -31192,7 +31192,7 @@
         <v>0.85</v>
       </c>
       <c r="AS158">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT158">
         <v>1.06</v>
@@ -33484,10 +33484,10 @@
         <v>1.71</v>
       </c>
       <c r="AS170">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT170">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU170">
         <v>1.23</v>
@@ -33675,7 +33675,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT171">
         <v>1.06</v>
@@ -33869,7 +33869,7 @@
         <v>2.13</v>
       </c>
       <c r="AT172">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU172">
         <v>1.84</v>
@@ -34439,7 +34439,7 @@
         <v>0.71</v>
       </c>
       <c r="AS175">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT175">
         <v>0.88</v>
@@ -34824,7 +34824,7 @@
         <v>1.69</v>
       </c>
       <c r="AT177">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU177">
         <v>1.3</v>
@@ -35394,7 +35394,7 @@
         <v>0.73</v>
       </c>
       <c r="AS180">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT180">
         <v>0.88</v>
@@ -36540,7 +36540,7 @@
         <v>1.07</v>
       </c>
       <c r="AS186">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT186">
         <v>1.19</v>
@@ -37168,6 +37168,388 @@
       </c>
       <c r="BK189">
         <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2496848</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F190">
+        <v>32</v>
+      </c>
+      <c r="G190" t="s">
+        <v>69</v>
+      </c>
+      <c r="H190" t="s">
+        <v>65</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>4</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190" t="s">
+        <v>81</v>
+      </c>
+      <c r="P190" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190">
+        <v>3</v>
+      </c>
+      <c r="S190">
+        <v>7</v>
+      </c>
+      <c r="T190">
+        <v>2.29</v>
+      </c>
+      <c r="U190">
+        <v>2.25</v>
+      </c>
+      <c r="V190">
+        <v>4.46</v>
+      </c>
+      <c r="W190">
+        <v>1.31</v>
+      </c>
+      <c r="X190">
+        <v>3.15</v>
+      </c>
+      <c r="Y190">
+        <v>2.47</v>
+      </c>
+      <c r="Z190">
+        <v>1.48</v>
+      </c>
+      <c r="AA190">
+        <v>5.2</v>
+      </c>
+      <c r="AB190">
+        <v>1.13</v>
+      </c>
+      <c r="AC190">
+        <v>1.83</v>
+      </c>
+      <c r="AD190">
+        <v>3.4</v>
+      </c>
+      <c r="AE190">
+        <v>3.6</v>
+      </c>
+      <c r="AF190">
+        <v>1.02</v>
+      </c>
+      <c r="AG190">
+        <v>16</v>
+      </c>
+      <c r="AH190">
+        <v>1.2</v>
+      </c>
+      <c r="AI190">
+        <v>4.1</v>
+      </c>
+      <c r="AJ190">
+        <v>1.9</v>
+      </c>
+      <c r="AK190">
+        <v>1.9</v>
+      </c>
+      <c r="AL190">
+        <v>1.62</v>
+      </c>
+      <c r="AM190">
+        <v>2.24</v>
+      </c>
+      <c r="AN190">
+        <v>1.21</v>
+      </c>
+      <c r="AO190">
+        <v>1.23</v>
+      </c>
+      <c r="AP190">
+        <v>1.92</v>
+      </c>
+      <c r="AQ190">
+        <v>2.31</v>
+      </c>
+      <c r="AR190">
+        <v>1.5</v>
+      </c>
+      <c r="AS190">
+        <v>2.35</v>
+      </c>
+      <c r="AT190">
+        <v>1.41</v>
+      </c>
+      <c r="AU190">
+        <v>1.68</v>
+      </c>
+      <c r="AV190">
+        <v>1.67</v>
+      </c>
+      <c r="AW190">
+        <v>3.35</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>7</v>
+      </c>
+      <c r="BG190">
+        <v>3</v>
+      </c>
+      <c r="BH190">
+        <v>7</v>
+      </c>
+      <c r="BI190">
+        <v>2</v>
+      </c>
+      <c r="BJ190">
+        <v>14</v>
+      </c>
+      <c r="BK190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2496799</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45006.70833333334</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s">
+        <v>75</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>78</v>
+      </c>
+      <c r="P191" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q191">
+        <v>6</v>
+      </c>
+      <c r="R191">
+        <v>4</v>
+      </c>
+      <c r="S191">
+        <v>10</v>
+      </c>
+      <c r="T191">
+        <v>2.88</v>
+      </c>
+      <c r="U191">
+        <v>2.15</v>
+      </c>
+      <c r="V191">
+        <v>3.3</v>
+      </c>
+      <c r="W191">
+        <v>1.35</v>
+      </c>
+      <c r="X191">
+        <v>2.95</v>
+      </c>
+      <c r="Y191">
+        <v>2.66</v>
+      </c>
+      <c r="Z191">
+        <v>1.42</v>
+      </c>
+      <c r="AA191">
+        <v>5.6</v>
+      </c>
+      <c r="AB191">
+        <v>1.11</v>
+      </c>
+      <c r="AC191">
+        <v>2.3</v>
+      </c>
+      <c r="AD191">
+        <v>3.2</v>
+      </c>
+      <c r="AE191">
+        <v>2.7</v>
+      </c>
+      <c r="AF191">
+        <v>1.03</v>
+      </c>
+      <c r="AG191">
+        <v>13</v>
+      </c>
+      <c r="AH191">
+        <v>1.21</v>
+      </c>
+      <c r="AI191">
+        <v>3.95</v>
+      </c>
+      <c r="AJ191">
+        <v>1.8</v>
+      </c>
+      <c r="AK191">
+        <v>1.95</v>
+      </c>
+      <c r="AL191">
+        <v>1.62</v>
+      </c>
+      <c r="AM191">
+        <v>2.11</v>
+      </c>
+      <c r="AN191">
+        <v>1.4</v>
+      </c>
+      <c r="AO191">
+        <v>1.27</v>
+      </c>
+      <c r="AP191">
+        <v>1.52</v>
+      </c>
+      <c r="AQ191">
+        <v>1.53</v>
+      </c>
+      <c r="AR191">
+        <v>1.14</v>
+      </c>
+      <c r="AS191">
+        <v>1.44</v>
+      </c>
+      <c r="AT191">
+        <v>1.27</v>
+      </c>
+      <c r="AU191">
+        <v>1.28</v>
+      </c>
+      <c r="AV191">
+        <v>1.01</v>
+      </c>
+      <c r="AW191">
+        <v>2.29</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="AZ191">
+        <v>0</v>
+      </c>
+      <c r="BA191">
+        <v>1.3</v>
+      </c>
+      <c r="BB191">
+        <v>1.58</v>
+      </c>
+      <c r="BC191">
+        <v>2</v>
+      </c>
+      <c r="BD191">
+        <v>2.7</v>
+      </c>
+      <c r="BE191">
+        <v>3.75</v>
+      </c>
+      <c r="BF191">
+        <v>2</v>
+      </c>
+      <c r="BG191">
+        <v>6</v>
+      </c>
+      <c r="BH191">
+        <v>8</v>
+      </c>
+      <c r="BI191">
+        <v>4</v>
+      </c>
+      <c r="BJ191">
+        <v>10</v>
+      </c>
+      <c r="BK191">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,9 @@
     <t>['11', '48', '9001']</t>
   </si>
   <si>
+    <t>['25', '4501', '66', '71']</t>
+  </si>
+  <si>
     <t>['19', '27', '40', '55', '68']</t>
   </si>
   <si>
@@ -704,6 +707,9 @@
   </si>
   <si>
     <t>['35', '51']</t>
+  </si>
+  <si>
+    <t>['72', '75']</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2461,7 @@
         <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3028,7 +3034,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3410,7 +3416,7 @@
         <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -4747,7 +4753,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4938,7 +4944,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -7421,7 +7427,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7803,7 +7809,7 @@
         <v>78</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -9140,7 +9146,7 @@
         <v>92</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9522,7 +9528,7 @@
         <v>93</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9713,7 +9719,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10095,7 +10101,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -11050,7 +11056,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11241,7 +11247,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11623,7 +11629,7 @@
         <v>98</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -13151,7 +13157,7 @@
         <v>101</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13342,7 +13348,7 @@
         <v>78</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -15443,7 +15449,7 @@
         <v>104</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -16398,7 +16404,7 @@
         <v>106</v>
       </c>
       <c r="P81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16589,7 +16595,7 @@
         <v>107</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16780,7 +16786,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17353,7 +17359,7 @@
         <v>78</v>
       </c>
       <c r="P86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17544,7 +17550,7 @@
         <v>109</v>
       </c>
       <c r="P87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17735,7 +17741,7 @@
         <v>110</v>
       </c>
       <c r="P88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17926,7 +17932,7 @@
         <v>111</v>
       </c>
       <c r="P89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18117,7 +18123,7 @@
         <v>78</v>
       </c>
       <c r="P90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18690,7 +18696,7 @@
         <v>113</v>
       </c>
       <c r="P93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18881,7 +18887,7 @@
         <v>114</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19263,7 +19269,7 @@
         <v>102</v>
       </c>
       <c r="P96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19454,7 +19460,7 @@
         <v>115</v>
       </c>
       <c r="P97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q97">
         <v>8</v>
@@ -20409,7 +20415,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20791,7 +20797,7 @@
         <v>120</v>
       </c>
       <c r="P104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21173,7 +21179,7 @@
         <v>121</v>
       </c>
       <c r="P106" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21555,7 +21561,7 @@
         <v>122</v>
       </c>
       <c r="P108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21746,7 +21752,7 @@
         <v>123</v>
       </c>
       <c r="P109" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22128,7 +22134,7 @@
         <v>124</v>
       </c>
       <c r="P111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -22319,7 +22325,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q112">
         <v>10</v>
@@ -22892,7 +22898,7 @@
         <v>126</v>
       </c>
       <c r="P115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23083,7 +23089,7 @@
         <v>106</v>
       </c>
       <c r="P116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23274,7 +23280,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23465,7 +23471,7 @@
         <v>128</v>
       </c>
       <c r="P118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -24038,7 +24044,7 @@
         <v>130</v>
       </c>
       <c r="P121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -24420,7 +24426,7 @@
         <v>78</v>
       </c>
       <c r="P123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24802,7 +24808,7 @@
         <v>133</v>
       </c>
       <c r="P125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25566,7 +25572,7 @@
         <v>78</v>
       </c>
       <c r="P129" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25948,7 +25954,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q131">
         <v>9</v>
@@ -27476,7 +27482,7 @@
         <v>78</v>
       </c>
       <c r="P139" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -27667,7 +27673,7 @@
         <v>136</v>
       </c>
       <c r="P140" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28240,7 +28246,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28431,7 +28437,7 @@
         <v>140</v>
       </c>
       <c r="P144" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29195,7 +29201,7 @@
         <v>143</v>
       </c>
       <c r="P148" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29386,7 +29392,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -30341,7 +30347,7 @@
         <v>145</v>
       </c>
       <c r="P154" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30532,7 +30538,7 @@
         <v>146</v>
       </c>
       <c r="P155" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31105,7 +31111,7 @@
         <v>78</v>
       </c>
       <c r="P158" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31296,7 +31302,7 @@
         <v>147</v>
       </c>
       <c r="P159" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31487,7 +31493,7 @@
         <v>148</v>
       </c>
       <c r="P160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31869,7 +31875,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32060,7 +32066,7 @@
         <v>150</v>
       </c>
       <c r="P163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32251,7 +32257,7 @@
         <v>78</v>
       </c>
       <c r="P164" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32442,7 +32448,7 @@
         <v>151</v>
       </c>
       <c r="P165" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32633,7 +32639,7 @@
         <v>78</v>
       </c>
       <c r="P166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33779,7 +33785,7 @@
         <v>155</v>
       </c>
       <c r="P172" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -33970,7 +33976,7 @@
         <v>156</v>
       </c>
       <c r="P173" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34352,7 +34358,7 @@
         <v>157</v>
       </c>
       <c r="P175" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -35498,7 +35504,7 @@
         <v>160</v>
       </c>
       <c r="P181" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35880,7 +35886,7 @@
         <v>161</v>
       </c>
       <c r="P183" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36262,7 +36268,7 @@
         <v>162</v>
       </c>
       <c r="P185" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36453,7 +36459,7 @@
         <v>78</v>
       </c>
       <c r="P186" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37026,7 +37032,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q189">
         <v>1</v>
@@ -37196,13 +37202,13 @@
         <v>65</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L190">
         <v>4</v>
@@ -37214,10 +37220,10 @@
         <v>5</v>
       </c>
       <c r="O190" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="P190" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37408,7 +37414,7 @@
         <v>78</v>
       </c>
       <c r="P191" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Q191">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,18 @@
     <t>['25', '4501', '66', '71']</t>
   </si>
   <si>
+    <t>['35', '39']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['13', '73']</t>
+  </si>
+  <si>
+    <t>['28', '45', '87']</t>
+  </si>
+  <si>
     <t>['19', '27', '40', '55', '68']</t>
   </si>
   <si>
@@ -710,6 +722,15 @@
   </si>
   <si>
     <t>['72', '75']</t>
+  </si>
+  <si>
+    <t>['4502', '54', '72']</t>
+  </si>
+  <si>
+    <t>['26', '48', '64', '78', '9004']</t>
+  </si>
+  <si>
+    <t>['41', '44']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT2">
         <v>0.88</v>
@@ -1596,7 +1617,7 @@
         <v>1.59</v>
       </c>
       <c r="AT3">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1784,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1975,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT5">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2357,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT7">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2461,7 +2482,7 @@
         <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2551,7 +2572,7 @@
         <v>1.69</v>
       </c>
       <c r="AT8">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2739,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT9">
         <v>1.87</v>
@@ -3034,7 +3055,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3121,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT11">
         <v>1.19</v>
@@ -3416,7 +3437,7 @@
         <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3506,7 +3527,7 @@
         <v>1.19</v>
       </c>
       <c r="AT13">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3694,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT14">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3888,7 +3909,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4076,10 +4097,10 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT16">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU16">
         <v>2.46</v>
@@ -4267,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT17">
         <v>1.63</v>
@@ -4649,10 +4670,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4753,7 +4774,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4843,7 +4864,7 @@
         <v>1.69</v>
       </c>
       <c r="AT20">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU20">
         <v>1.06</v>
@@ -4944,7 +4965,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -5034,7 +5055,7 @@
         <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5222,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT22">
         <v>1.19</v>
@@ -5413,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT23">
         <v>1.06</v>
@@ -5604,10 +5625,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT24">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6368,10 +6389,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6562,7 +6583,7 @@
         <v>2.35</v>
       </c>
       <c r="AT29">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU29">
         <v>1.67</v>
@@ -6750,7 +6771,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT30">
         <v>1.41</v>
@@ -6941,10 +6962,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT31">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7132,10 +7153,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7427,7 +7448,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7514,7 +7535,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT34">
         <v>1.63</v>
@@ -7708,7 +7729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU35">
         <v>1.73</v>
@@ -7809,7 +7830,7 @@
         <v>78</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7899,7 +7920,7 @@
         <v>1.19</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU36">
         <v>1.37</v>
@@ -8087,10 +8108,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT37">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8660,7 +8681,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT40">
         <v>1.41</v>
@@ -9045,7 +9066,7 @@
         <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU42">
         <v>1.69</v>
@@ -9146,7 +9167,7 @@
         <v>92</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9233,7 +9254,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT43">
         <v>1.41</v>
@@ -9427,7 +9448,7 @@
         <v>1.69</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9528,7 +9549,7 @@
         <v>93</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9615,7 +9636,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT45">
         <v>1.06</v>
@@ -9719,7 +9740,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9806,10 +9827,10 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT46">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU46">
         <v>1.53</v>
@@ -10000,7 +10021,7 @@
         <v>2.35</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU47">
         <v>1.93</v>
@@ -10101,7 +10122,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10379,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT49">
         <v>1.19</v>
@@ -10764,7 +10785,7 @@
         <v>1.59</v>
       </c>
       <c r="AT51">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU51">
         <v>0.9399999999999999</v>
@@ -11056,7 +11077,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11143,7 +11164,7 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT53">
         <v>1.06</v>
@@ -11247,7 +11268,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11334,10 +11355,10 @@
         <v>0.75</v>
       </c>
       <c r="AS54">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT54">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU54">
         <v>1.49</v>
@@ -11525,10 +11546,10 @@
         <v>0.8</v>
       </c>
       <c r="AS55">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU55">
         <v>1.26</v>
@@ -11629,7 +11650,7 @@
         <v>98</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11716,10 +11737,10 @@
         <v>1.2</v>
       </c>
       <c r="AS56">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT56">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -11907,7 +11928,7 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT57">
         <v>0.88</v>
@@ -12101,7 +12122,7 @@
         <v>2.35</v>
       </c>
       <c r="AT58">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU58">
         <v>1.93</v>
@@ -12292,7 +12313,7 @@
         <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
         <v>1.69</v>
@@ -12483,7 +12504,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU60">
         <v>1.73</v>
@@ -12671,10 +12692,10 @@
         <v>2.33</v>
       </c>
       <c r="AS61">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT61">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU61">
         <v>1.66</v>
@@ -12862,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT62">
         <v>1.19</v>
@@ -13157,7 +13178,7 @@
         <v>101</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13348,7 +13369,7 @@
         <v>78</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13435,10 +13456,10 @@
         <v>1.17</v>
       </c>
       <c r="AS65">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT65">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU65">
         <v>1.54</v>
@@ -13626,10 +13647,10 @@
         <v>1.6</v>
       </c>
       <c r="AS66">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT66">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -13817,7 +13838,7 @@
         <v>1.6</v>
       </c>
       <c r="AS67">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT67">
         <v>1.63</v>
@@ -14011,7 +14032,7 @@
         <v>2.35</v>
       </c>
       <c r="AT68">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14581,10 +14602,10 @@
         <v>1.75</v>
       </c>
       <c r="AS71">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT71">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU71">
         <v>1.51</v>
@@ -14775,7 +14796,7 @@
         <v>1.59</v>
       </c>
       <c r="AT72">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU72">
         <v>0.9399999999999999</v>
@@ -14966,7 +14987,7 @@
         <v>1.69</v>
       </c>
       <c r="AT73">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU73">
         <v>1.27</v>
@@ -15154,7 +15175,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT74">
         <v>1.06</v>
@@ -15449,7 +15470,7 @@
         <v>104</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15536,7 +15557,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT76">
         <v>1.19</v>
@@ -15727,10 +15748,10 @@
         <v>0.8</v>
       </c>
       <c r="AS77">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT77">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -16109,10 +16130,10 @@
         <v>2</v>
       </c>
       <c r="AS79">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU79">
         <v>1.84</v>
@@ -16404,7 +16425,7 @@
         <v>106</v>
       </c>
       <c r="P81" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16595,7 +16616,7 @@
         <v>107</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16682,10 +16703,10 @@
         <v>1.57</v>
       </c>
       <c r="AS82">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT82">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -16786,7 +16807,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16873,10 +16894,10 @@
         <v>0.57</v>
       </c>
       <c r="AS83">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -17067,7 +17088,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU84">
         <v>1.73</v>
@@ -17255,7 +17276,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT85">
         <v>1.63</v>
@@ -17359,7 +17380,7 @@
         <v>78</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17550,7 +17571,7 @@
         <v>109</v>
       </c>
       <c r="P87" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17637,10 +17658,10 @@
         <v>0.86</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT87">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU87">
         <v>1.61</v>
@@ -17741,7 +17762,7 @@
         <v>110</v>
       </c>
       <c r="P88" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17932,7 +17953,7 @@
         <v>111</v>
       </c>
       <c r="P89" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18019,7 +18040,7 @@
         <v>1.71</v>
       </c>
       <c r="AS89">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT89">
         <v>1.41</v>
@@ -18123,7 +18144,7 @@
         <v>78</v>
       </c>
       <c r="P90" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18210,10 +18231,10 @@
         <v>2.17</v>
       </c>
       <c r="AS90">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT90">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -18592,10 +18613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT92">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU92">
         <v>1.86</v>
@@ -18696,7 +18717,7 @@
         <v>113</v>
       </c>
       <c r="P93" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18783,10 +18804,10 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT93">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU93">
         <v>1.8</v>
@@ -18887,7 +18908,7 @@
         <v>114</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18977,7 +18998,7 @@
         <v>1.69</v>
       </c>
       <c r="AT94">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19165,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT95">
         <v>1.06</v>
@@ -19269,7 +19290,7 @@
         <v>102</v>
       </c>
       <c r="P96" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19356,7 +19377,7 @@
         <v>1.63</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT96">
         <v>1.41</v>
@@ -19460,7 +19481,7 @@
         <v>115</v>
       </c>
       <c r="P97" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q97">
         <v>8</v>
@@ -19547,10 +19568,10 @@
         <v>1.13</v>
       </c>
       <c r="AS97">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT97">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU97">
         <v>1.73</v>
@@ -19741,7 +19762,7 @@
         <v>1.59</v>
       </c>
       <c r="AT98">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU98">
         <v>0.9399999999999999</v>
@@ -19932,7 +19953,7 @@
         <v>1.19</v>
       </c>
       <c r="AT99">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20311,7 +20332,7 @@
         <v>2.14</v>
       </c>
       <c r="AS101">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT101">
         <v>1.87</v>
@@ -20415,7 +20436,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20502,10 +20523,10 @@
         <v>1.33</v>
       </c>
       <c r="AS102">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU102">
         <v>1.42</v>
@@ -20693,7 +20714,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT103">
         <v>1.63</v>
@@ -20797,7 +20818,7 @@
         <v>120</v>
       </c>
       <c r="P104" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -20887,7 +20908,7 @@
         <v>1.69</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU104">
         <v>1.32</v>
@@ -21179,7 +21200,7 @@
         <v>121</v>
       </c>
       <c r="P106" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21269,7 +21290,7 @@
         <v>2.35</v>
       </c>
       <c r="AT106">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU106">
         <v>1.77</v>
@@ -21561,7 +21582,7 @@
         <v>122</v>
       </c>
       <c r="P108" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21651,7 +21672,7 @@
         <v>1.44</v>
       </c>
       <c r="AT108">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU108">
         <v>1.39</v>
@@ -21752,7 +21773,7 @@
         <v>123</v>
       </c>
       <c r="P109" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21839,7 +21860,7 @@
         <v>0.78</v>
       </c>
       <c r="AS109">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT109">
         <v>1.19</v>
@@ -22030,10 +22051,10 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT110">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22134,7 +22155,7 @@
         <v>124</v>
       </c>
       <c r="P111" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -22221,10 +22242,10 @@
         <v>0.57</v>
       </c>
       <c r="AS111">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT111">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU111">
         <v>1.44</v>
@@ -22325,7 +22346,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q112">
         <v>10</v>
@@ -22412,10 +22433,10 @@
         <v>1.33</v>
       </c>
       <c r="AS112">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT112">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU112">
         <v>1.35</v>
@@ -22797,7 +22818,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU114">
         <v>1.73</v>
@@ -22898,7 +22919,7 @@
         <v>126</v>
       </c>
       <c r="P115" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23089,7 +23110,7 @@
         <v>106</v>
       </c>
       <c r="P116" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23280,7 +23301,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23367,7 +23388,7 @@
         <v>0.7</v>
       </c>
       <c r="AS117">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT117">
         <v>1.19</v>
@@ -23471,7 +23492,7 @@
         <v>128</v>
       </c>
       <c r="P118" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23561,7 +23582,7 @@
         <v>1.19</v>
       </c>
       <c r="AT118">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU118">
         <v>1.46</v>
@@ -23940,10 +23961,10 @@
         <v>1.3</v>
       </c>
       <c r="AS120">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT120">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24044,7 +24065,7 @@
         <v>130</v>
       </c>
       <c r="P121" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -24131,10 +24152,10 @@
         <v>1.89</v>
       </c>
       <c r="AS121">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT121">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU121">
         <v>1.47</v>
@@ -24322,10 +24343,10 @@
         <v>1.3</v>
       </c>
       <c r="AS122">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT122">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU122">
         <v>1.5</v>
@@ -24426,7 +24447,7 @@
         <v>78</v>
       </c>
       <c r="P123" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24513,7 +24534,7 @@
         <v>0.44</v>
       </c>
       <c r="AS123">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT123">
         <v>0.88</v>
@@ -24704,10 +24725,10 @@
         <v>1.18</v>
       </c>
       <c r="AS124">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT124">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU124">
         <v>1.37</v>
@@ -24808,7 +24829,7 @@
         <v>133</v>
       </c>
       <c r="P125" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -24895,7 +24916,7 @@
         <v>1.44</v>
       </c>
       <c r="AS125">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT125">
         <v>1.63</v>
@@ -25086,7 +25107,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT126">
         <v>1.41</v>
@@ -25277,10 +25298,10 @@
         <v>1.7</v>
       </c>
       <c r="AS127">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT127">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU127">
         <v>1.4</v>
@@ -25471,7 +25492,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU128">
         <v>1.73</v>
@@ -25572,7 +25593,7 @@
         <v>78</v>
       </c>
       <c r="P129" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25662,7 +25683,7 @@
         <v>1.59</v>
       </c>
       <c r="AT129">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU129">
         <v>1.15</v>
@@ -25850,10 +25871,10 @@
         <v>0.67</v>
       </c>
       <c r="AS130">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT130">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -25954,7 +25975,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q131">
         <v>9</v>
@@ -26041,7 +26062,7 @@
         <v>0.91</v>
       </c>
       <c r="AS131">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT131">
         <v>1.19</v>
@@ -26232,7 +26253,7 @@
         <v>0.7</v>
       </c>
       <c r="AS132">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT132">
         <v>0.88</v>
@@ -26423,10 +26444,10 @@
         <v>1.45</v>
       </c>
       <c r="AS133">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT133">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU133">
         <v>1.37</v>
@@ -27381,7 +27402,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU138">
         <v>1.73</v>
@@ -27482,7 +27503,7 @@
         <v>78</v>
       </c>
       <c r="P139" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -27569,7 +27590,7 @@
         <v>1.67</v>
       </c>
       <c r="AS139">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT139">
         <v>1.41</v>
@@ -27673,7 +27694,7 @@
         <v>136</v>
       </c>
       <c r="P140" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -27763,7 +27784,7 @@
         <v>1.44</v>
       </c>
       <c r="AT140">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU140">
         <v>1.26</v>
@@ -27951,7 +27972,7 @@
         <v>1</v>
       </c>
       <c r="AS141">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT141">
         <v>1.06</v>
@@ -28142,10 +28163,10 @@
         <v>0.8</v>
       </c>
       <c r="AS142">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT142">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU142">
         <v>1.37</v>
@@ -28246,7 +28267,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28437,7 +28458,7 @@
         <v>140</v>
       </c>
       <c r="P144" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -28527,7 +28548,7 @@
         <v>2.35</v>
       </c>
       <c r="AT144">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU144">
         <v>1.69</v>
@@ -28715,7 +28736,7 @@
         <v>0.92</v>
       </c>
       <c r="AS145">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT145">
         <v>0.88</v>
@@ -29201,7 +29222,7 @@
         <v>143</v>
       </c>
       <c r="P148" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29288,10 +29309,10 @@
         <v>0.73</v>
       </c>
       <c r="AS148">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT148">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU148">
         <v>1.62</v>
@@ -29392,7 +29413,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29479,7 +29500,7 @@
         <v>1.67</v>
       </c>
       <c r="AS149">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT149">
         <v>1.63</v>
@@ -29670,7 +29691,7 @@
         <v>1.9</v>
       </c>
       <c r="AS150">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT150">
         <v>1.87</v>
@@ -29864,7 +29885,7 @@
         <v>2.35</v>
       </c>
       <c r="AT151">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU151">
         <v>1.68</v>
@@ -30055,7 +30076,7 @@
         <v>1.5</v>
       </c>
       <c r="AT152">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU152">
         <v>1.73</v>
@@ -30347,7 +30368,7 @@
         <v>145</v>
       </c>
       <c r="P154" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30434,10 +30455,10 @@
         <v>0.75</v>
       </c>
       <c r="AS154">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT154">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30538,7 +30559,7 @@
         <v>146</v>
       </c>
       <c r="P155" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -30625,10 +30646,10 @@
         <v>1.75</v>
       </c>
       <c r="AS155">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT155">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU155">
         <v>1.87</v>
@@ -30819,7 +30840,7 @@
         <v>1.19</v>
       </c>
       <c r="AT156">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU156">
         <v>1.5</v>
@@ -31007,7 +31028,7 @@
         <v>1.77</v>
       </c>
       <c r="AS157">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT157">
         <v>1.41</v>
@@ -31111,7 +31132,7 @@
         <v>78</v>
       </c>
       <c r="P158" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31302,7 +31323,7 @@
         <v>147</v>
       </c>
       <c r="P159" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31392,7 +31413,7 @@
         <v>1.59</v>
       </c>
       <c r="AT159">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU159">
         <v>1.42</v>
@@ -31493,7 +31514,7 @@
         <v>148</v>
       </c>
       <c r="P160" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31580,7 +31601,7 @@
         <v>0.85</v>
       </c>
       <c r="AS160">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT160">
         <v>0.88</v>
@@ -31771,7 +31792,7 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT161">
         <v>1.19</v>
@@ -31875,7 +31896,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -31962,10 +31983,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS162">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT162">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU162">
         <v>1.3</v>
@@ -32066,7 +32087,7 @@
         <v>150</v>
       </c>
       <c r="P163" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32156,7 +32177,7 @@
         <v>1.59</v>
       </c>
       <c r="AT163">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32257,7 +32278,7 @@
         <v>78</v>
       </c>
       <c r="P164" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32347,7 +32368,7 @@
         <v>1.69</v>
       </c>
       <c r="AT164">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU164">
         <v>1.41</v>
@@ -32448,7 +32469,7 @@
         <v>151</v>
       </c>
       <c r="P165" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32639,7 +32660,7 @@
         <v>78</v>
       </c>
       <c r="P166" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32726,7 +32747,7 @@
         <v>1.77</v>
       </c>
       <c r="AS166">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT166">
         <v>1.63</v>
@@ -32920,7 +32941,7 @@
         <v>1.19</v>
       </c>
       <c r="AT167">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU167">
         <v>1.5</v>
@@ -33299,7 +33320,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT169">
         <v>0.88</v>
@@ -33785,7 +33806,7 @@
         <v>155</v>
       </c>
       <c r="P172" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -33872,10 +33893,10 @@
         <v>1.23</v>
       </c>
       <c r="AS172">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT172">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU172">
         <v>1.84</v>
@@ -33976,7 +33997,7 @@
         <v>156</v>
       </c>
       <c r="P173" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -34066,7 +34087,7 @@
         <v>1.19</v>
       </c>
       <c r="AT173">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU173">
         <v>1.5</v>
@@ -34254,7 +34275,7 @@
         <v>0.93</v>
       </c>
       <c r="AS174">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT174">
         <v>1.06</v>
@@ -34358,7 +34379,7 @@
         <v>157</v>
       </c>
       <c r="P175" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -34448,7 +34469,7 @@
         <v>1.44</v>
       </c>
       <c r="AT175">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU175">
         <v>1.19</v>
@@ -34636,7 +34657,7 @@
         <v>1.86</v>
       </c>
       <c r="AS176">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT176">
         <v>1.63</v>
@@ -35021,7 +35042,7 @@
         <v>1.59</v>
       </c>
       <c r="AT178">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU178">
         <v>1.65</v>
@@ -35403,7 +35424,7 @@
         <v>2.35</v>
       </c>
       <c r="AT180">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU180">
         <v>1.68</v>
@@ -35504,7 +35525,7 @@
         <v>160</v>
       </c>
       <c r="P181" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35591,10 +35612,10 @@
         <v>0.53</v>
       </c>
       <c r="AS181">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT181">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU181">
         <v>1.82</v>
@@ -35782,10 +35803,10 @@
         <v>1.14</v>
       </c>
       <c r="AS182">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT182">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU182">
         <v>1.39</v>
@@ -35886,7 +35907,7 @@
         <v>161</v>
       </c>
       <c r="P183" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -35973,7 +35994,7 @@
         <v>1.92</v>
       </c>
       <c r="AS183">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT183">
         <v>1.87</v>
@@ -36164,10 +36185,10 @@
         <v>1.07</v>
       </c>
       <c r="AS184">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT184">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU184">
         <v>1.56</v>
@@ -36268,7 +36289,7 @@
         <v>162</v>
       </c>
       <c r="P185" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36459,7 +36480,7 @@
         <v>78</v>
       </c>
       <c r="P186" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37032,7 +37053,7 @@
         <v>163</v>
       </c>
       <c r="P189" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q189">
         <v>1</v>
@@ -37414,7 +37435,7 @@
         <v>78</v>
       </c>
       <c r="P191" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37504,7 +37525,7 @@
         <v>1.44</v>
       </c>
       <c r="AT191">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU191">
         <v>1.28</v>
@@ -37556,6 +37577,1152 @@
       </c>
       <c r="BK191">
         <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2496852</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F192">
+        <v>33</v>
+      </c>
+      <c r="G192" t="s">
+        <v>74</v>
+      </c>
+      <c r="H192" t="s">
+        <v>73</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>165</v>
+      </c>
+      <c r="P192" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q192">
+        <v>2</v>
+      </c>
+      <c r="R192">
+        <v>7</v>
+      </c>
+      <c r="S192">
+        <v>9</v>
+      </c>
+      <c r="T192">
+        <v>3.4</v>
+      </c>
+      <c r="U192">
+        <v>2.38</v>
+      </c>
+      <c r="V192">
+        <v>2.6</v>
+      </c>
+      <c r="W192">
+        <v>1.24</v>
+      </c>
+      <c r="X192">
+        <v>3.55</v>
+      </c>
+      <c r="Y192">
+        <v>2.27</v>
+      </c>
+      <c r="Z192">
+        <v>1.53</v>
+      </c>
+      <c r="AA192">
+        <v>5.75</v>
+      </c>
+      <c r="AB192">
+        <v>1.11</v>
+      </c>
+      <c r="AC192">
+        <v>3.05</v>
+      </c>
+      <c r="AD192">
+        <v>3.55</v>
+      </c>
+      <c r="AE192">
+        <v>2</v>
+      </c>
+      <c r="AF192">
+        <v>1.02</v>
+      </c>
+      <c r="AG192">
+        <v>19</v>
+      </c>
+      <c r="AH192">
+        <v>1.16</v>
+      </c>
+      <c r="AI192">
+        <v>4.53</v>
+      </c>
+      <c r="AJ192">
+        <v>1.54</v>
+      </c>
+      <c r="AK192">
+        <v>2.32</v>
+      </c>
+      <c r="AL192">
+        <v>1.5</v>
+      </c>
+      <c r="AM192">
+        <v>2.4</v>
+      </c>
+      <c r="AN192">
+        <v>1.68</v>
+      </c>
+      <c r="AO192">
+        <v>1.22</v>
+      </c>
+      <c r="AP192">
+        <v>1.35</v>
+      </c>
+      <c r="AQ192">
+        <v>0.93</v>
+      </c>
+      <c r="AR192">
+        <v>0.5</v>
+      </c>
+      <c r="AS192">
+        <v>0.87</v>
+      </c>
+      <c r="AT192">
+        <v>0.65</v>
+      </c>
+      <c r="AU192">
+        <v>1.32</v>
+      </c>
+      <c r="AV192">
+        <v>1.31</v>
+      </c>
+      <c r="AW192">
+        <v>2.63</v>
+      </c>
+      <c r="AX192">
+        <v>0</v>
+      </c>
+      <c r="AY192">
+        <v>0</v>
+      </c>
+      <c r="AZ192">
+        <v>0</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>0</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>6</v>
+      </c>
+      <c r="BG192">
+        <v>6</v>
+      </c>
+      <c r="BH192">
+        <v>3</v>
+      </c>
+      <c r="BI192">
+        <v>5</v>
+      </c>
+      <c r="BJ192">
+        <v>9</v>
+      </c>
+      <c r="BK192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2496851</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F193">
+        <v>33</v>
+      </c>
+      <c r="G193" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" t="s">
+        <v>69</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>78</v>
+      </c>
+      <c r="P193" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q193">
+        <v>-1</v>
+      </c>
+      <c r="R193">
+        <v>-1</v>
+      </c>
+      <c r="S193">
+        <v>-1</v>
+      </c>
+      <c r="T193">
+        <v>5</v>
+      </c>
+      <c r="U193">
+        <v>2.4</v>
+      </c>
+      <c r="V193">
+        <v>1.86</v>
+      </c>
+      <c r="W193">
+        <v>1.41</v>
+      </c>
+      <c r="X193">
+        <v>2.71</v>
+      </c>
+      <c r="Y193">
+        <v>2.21</v>
+      </c>
+      <c r="Z193">
+        <v>1.51</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>4.7</v>
+      </c>
+      <c r="AD193">
+        <v>3.95</v>
+      </c>
+      <c r="AE193">
+        <v>1.57</v>
+      </c>
+      <c r="AF193">
+        <v>1.02</v>
+      </c>
+      <c r="AG193">
+        <v>16</v>
+      </c>
+      <c r="AH193">
+        <v>1.16</v>
+      </c>
+      <c r="AI193">
+        <v>4.5</v>
+      </c>
+      <c r="AJ193">
+        <v>1.53</v>
+      </c>
+      <c r="AK193">
+        <v>2.25</v>
+      </c>
+      <c r="AL193">
+        <v>1.68</v>
+      </c>
+      <c r="AM193">
+        <v>2.05</v>
+      </c>
+      <c r="AN193">
+        <v>2.55</v>
+      </c>
+      <c r="AO193">
+        <v>1.17</v>
+      </c>
+      <c r="AP193">
+        <v>1.12</v>
+      </c>
+      <c r="AQ193">
+        <v>1.63</v>
+      </c>
+      <c r="AR193">
+        <v>1.87</v>
+      </c>
+      <c r="AS193">
+        <v>1.59</v>
+      </c>
+      <c r="AT193">
+        <v>1.81</v>
+      </c>
+      <c r="AU193">
+        <v>1.37</v>
+      </c>
+      <c r="AV193">
+        <v>1.68</v>
+      </c>
+      <c r="AW193">
+        <v>3.05</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>-1</v>
+      </c>
+      <c r="BG193">
+        <v>-1</v>
+      </c>
+      <c r="BH193">
+        <v>-1</v>
+      </c>
+      <c r="BI193">
+        <v>-1</v>
+      </c>
+      <c r="BJ193">
+        <v>-1</v>
+      </c>
+      <c r="BK193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2496850</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F194">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>67</v>
+      </c>
+      <c r="H194" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+      <c r="N194">
+        <v>6</v>
+      </c>
+      <c r="O194" t="s">
+        <v>166</v>
+      </c>
+      <c r="P194" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q194">
+        <v>4</v>
+      </c>
+      <c r="R194">
+        <v>4</v>
+      </c>
+      <c r="S194">
+        <v>8</v>
+      </c>
+      <c r="T194">
+        <v>2.4</v>
+      </c>
+      <c r="U194">
+        <v>2.4</v>
+      </c>
+      <c r="V194">
+        <v>3.5</v>
+      </c>
+      <c r="W194">
+        <v>1.21</v>
+      </c>
+      <c r="X194">
+        <v>3.9</v>
+      </c>
+      <c r="Y194">
+        <v>2.14</v>
+      </c>
+      <c r="Z194">
+        <v>1.6</v>
+      </c>
+      <c r="AA194">
+        <v>5.1</v>
+      </c>
+      <c r="AB194">
+        <v>1.14</v>
+      </c>
+      <c r="AC194">
+        <v>1.89</v>
+      </c>
+      <c r="AD194">
+        <v>3.64</v>
+      </c>
+      <c r="AE194">
+        <v>3.17</v>
+      </c>
+      <c r="AF194">
+        <v>1.02</v>
+      </c>
+      <c r="AG194">
+        <v>16</v>
+      </c>
+      <c r="AH194">
+        <v>1.14</v>
+      </c>
+      <c r="AI194">
+        <v>5.25</v>
+      </c>
+      <c r="AJ194">
+        <v>1.38</v>
+      </c>
+      <c r="AK194">
+        <v>2.45</v>
+      </c>
+      <c r="AL194">
+        <v>1.43</v>
+      </c>
+      <c r="AM194">
+        <v>2.55</v>
+      </c>
+      <c r="AN194">
+        <v>1.29</v>
+      </c>
+      <c r="AO194">
+        <v>1.25</v>
+      </c>
+      <c r="AP194">
+        <v>1.76</v>
+      </c>
+      <c r="AQ194">
+        <v>1.56</v>
+      </c>
+      <c r="AR194">
+        <v>1.06</v>
+      </c>
+      <c r="AS194">
+        <v>1.47</v>
+      </c>
+      <c r="AT194">
+        <v>1.18</v>
+      </c>
+      <c r="AU194">
+        <v>1.74</v>
+      </c>
+      <c r="AV194">
+        <v>1.72</v>
+      </c>
+      <c r="AW194">
+        <v>3.46</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>9</v>
+      </c>
+      <c r="BG194">
+        <v>11</v>
+      </c>
+      <c r="BH194">
+        <v>7</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>16</v>
+      </c>
+      <c r="BK194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2496853</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F195">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
+        <v>70</v>
+      </c>
+      <c r="H195" t="s">
+        <v>66</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>3</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>167</v>
+      </c>
+      <c r="P195" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q195">
+        <v>6</v>
+      </c>
+      <c r="R195">
+        <v>8</v>
+      </c>
+      <c r="S195">
+        <v>14</v>
+      </c>
+      <c r="T195">
+        <v>3.1</v>
+      </c>
+      <c r="U195">
+        <v>2.4</v>
+      </c>
+      <c r="V195">
+        <v>2.63</v>
+      </c>
+      <c r="W195">
+        <v>1.23</v>
+      </c>
+      <c r="X195">
+        <v>3.7</v>
+      </c>
+      <c r="Y195">
+        <v>2.29</v>
+      </c>
+      <c r="Z195">
+        <v>1.51</v>
+      </c>
+      <c r="AA195">
+        <v>5.4</v>
+      </c>
+      <c r="AB195">
+        <v>1.12</v>
+      </c>
+      <c r="AC195">
+        <v>2.7</v>
+      </c>
+      <c r="AD195">
+        <v>3.8</v>
+      </c>
+      <c r="AE195">
+        <v>2.1</v>
+      </c>
+      <c r="AF195">
+        <v>1.02</v>
+      </c>
+      <c r="AG195">
+        <v>20.5</v>
+      </c>
+      <c r="AH195">
+        <v>1.15</v>
+      </c>
+      <c r="AI195">
+        <v>4.75</v>
+      </c>
+      <c r="AJ195">
+        <v>1.48</v>
+      </c>
+      <c r="AK195">
+        <v>2.47</v>
+      </c>
+      <c r="AL195">
+        <v>1.48</v>
+      </c>
+      <c r="AM195">
+        <v>2.5</v>
+      </c>
+      <c r="AN195">
+        <v>1.6</v>
+      </c>
+      <c r="AO195">
+        <v>1.22</v>
+      </c>
+      <c r="AP195">
+        <v>1.42</v>
+      </c>
+      <c r="AQ195">
+        <v>0.73</v>
+      </c>
+      <c r="AR195">
+        <v>1.27</v>
+      </c>
+      <c r="AS195">
+        <v>0.75</v>
+      </c>
+      <c r="AT195">
+        <v>1.25</v>
+      </c>
+      <c r="AU195">
+        <v>1.56</v>
+      </c>
+      <c r="AV195">
+        <v>1.44</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>10</v>
+      </c>
+      <c r="BG195">
+        <v>4</v>
+      </c>
+      <c r="BH195">
+        <v>6</v>
+      </c>
+      <c r="BI195">
+        <v>6</v>
+      </c>
+      <c r="BJ195">
+        <v>16</v>
+      </c>
+      <c r="BK195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2496849</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F196">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>65</v>
+      </c>
+      <c r="H196" t="s">
+        <v>75</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>78</v>
+      </c>
+      <c r="P196" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>-1</v>
+      </c>
+      <c r="S196">
+        <v>-1</v>
+      </c>
+      <c r="T196">
+        <v>2.15</v>
+      </c>
+      <c r="U196">
+        <v>2.25</v>
+      </c>
+      <c r="V196">
+        <v>4</v>
+      </c>
+      <c r="W196">
+        <v>1.39</v>
+      </c>
+      <c r="X196">
+        <v>2.78</v>
+      </c>
+      <c r="Y196">
+        <v>2.29</v>
+      </c>
+      <c r="Z196">
+        <v>1.52</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+      <c r="AC196">
+        <v>1.6</v>
+      </c>
+      <c r="AD196">
+        <v>3.9</v>
+      </c>
+      <c r="AE196">
+        <v>4.5</v>
+      </c>
+      <c r="AF196">
+        <v>1.02</v>
+      </c>
+      <c r="AG196">
+        <v>15</v>
+      </c>
+      <c r="AH196">
+        <v>1.18</v>
+      </c>
+      <c r="AI196">
+        <v>4.4</v>
+      </c>
+      <c r="AJ196">
+        <v>1.53</v>
+      </c>
+      <c r="AK196">
+        <v>2.25</v>
+      </c>
+      <c r="AL196">
+        <v>1.57</v>
+      </c>
+      <c r="AM196">
+        <v>2.25</v>
+      </c>
+      <c r="AN196">
+        <v>1.21</v>
+      </c>
+      <c r="AO196">
+        <v>1.22</v>
+      </c>
+      <c r="AP196">
+        <v>2.05</v>
+      </c>
+      <c r="AQ196">
+        <v>2.07</v>
+      </c>
+      <c r="AR196">
+        <v>1.27</v>
+      </c>
+      <c r="AS196">
+        <v>1.94</v>
+      </c>
+      <c r="AT196">
+        <v>1.38</v>
+      </c>
+      <c r="AU196">
+        <v>1.39</v>
+      </c>
+      <c r="AV196">
+        <v>1.08</v>
+      </c>
+      <c r="AW196">
+        <v>2.47</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>-1</v>
+      </c>
+      <c r="BG196">
+        <v>-1</v>
+      </c>
+      <c r="BH196">
+        <v>-1</v>
+      </c>
+      <c r="BI196">
+        <v>-1</v>
+      </c>
+      <c r="BJ196">
+        <v>-1</v>
+      </c>
+      <c r="BK196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2496854</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F197">
+        <v>33</v>
+      </c>
+      <c r="G197" t="s">
+        <v>72</v>
+      </c>
+      <c r="H197" t="s">
+        <v>76</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>168</v>
+      </c>
+      <c r="P197" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q197">
+        <v>7</v>
+      </c>
+      <c r="R197">
+        <v>3</v>
+      </c>
+      <c r="S197">
+        <v>10</v>
+      </c>
+      <c r="T197">
+        <v>1.91</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>5.5</v>
+      </c>
+      <c r="W197">
+        <v>1.21</v>
+      </c>
+      <c r="X197">
+        <v>3.95</v>
+      </c>
+      <c r="Y197">
+        <v>2.3</v>
+      </c>
+      <c r="Z197">
+        <v>1.51</v>
+      </c>
+      <c r="AA197">
+        <v>5</v>
+      </c>
+      <c r="AB197">
+        <v>1.14</v>
+      </c>
+      <c r="AC197">
+        <v>1.4</v>
+      </c>
+      <c r="AD197">
+        <v>4.33</v>
+      </c>
+      <c r="AE197">
+        <v>6.5</v>
+      </c>
+      <c r="AF197">
+        <v>1.02</v>
+      </c>
+      <c r="AG197">
+        <v>21.5</v>
+      </c>
+      <c r="AH197">
+        <v>1.14</v>
+      </c>
+      <c r="AI197">
+        <v>4.93</v>
+      </c>
+      <c r="AJ197">
+        <v>1.47</v>
+      </c>
+      <c r="AK197">
+        <v>2.5</v>
+      </c>
+      <c r="AL197">
+        <v>1.6</v>
+      </c>
+      <c r="AM197">
+        <v>2.2</v>
+      </c>
+      <c r="AN197">
+        <v>1.13</v>
+      </c>
+      <c r="AO197">
+        <v>1.17</v>
+      </c>
+      <c r="AP197">
+        <v>2.5</v>
+      </c>
+      <c r="AQ197">
+        <v>2.13</v>
+      </c>
+      <c r="AR197">
+        <v>0.88</v>
+      </c>
+      <c r="AS197">
+        <v>2.18</v>
+      </c>
+      <c r="AT197">
+        <v>0.82</v>
+      </c>
+      <c r="AU197">
+        <v>1.82</v>
+      </c>
+      <c r="AV197">
+        <v>1.3</v>
+      </c>
+      <c r="AW197">
+        <v>3.12</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>7</v>
+      </c>
+      <c r="BG197">
+        <v>2</v>
+      </c>
+      <c r="BH197">
+        <v>10</v>
+      </c>
+      <c r="BI197">
+        <v>1</v>
+      </c>
+      <c r="BJ197">
+        <v>17</v>
+      </c>
+      <c r="BK197">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>2.18</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU27" t="n">
         <v>1.73</v>
@@ -8008,7 +8008,7 @@
         <v>1.69</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU37" t="n">
         <v>1.3</v>
@@ -11256,7 +11256,7 @@
         <v>1.19</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU53" t="n">
         <v>0.96</v>
@@ -12880,7 +12880,7 @@
         <v>1.59</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU61" t="n">
         <v>0.9399999999999999</v>
@@ -15316,7 +15316,7 @@
         <v>1.44</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU73" t="n">
         <v>1.58</v>
@@ -17955,7 +17955,7 @@
         <v>2.35</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU86" t="n">
         <v>1.93</v>
@@ -21000,7 +21000,7 @@
         <v>1.94</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -24654,7 +24654,7 @@
         <v>1.69</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU119" t="n">
         <v>1.38</v>
@@ -28105,7 +28105,7 @@
         <v>2.35</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU136" t="n">
         <v>1.69</v>
@@ -30947,7 +30947,7 @@
         <v>0.75</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU150" t="n">
         <v>1.56</v>
@@ -33992,7 +33992,7 @@
         <v>1.5</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU165" t="n">
         <v>1.73</v>
@@ -34601,7 +34601,7 @@
         <v>1.59</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU168" t="n">
         <v>1.62</v>
@@ -37240,7 +37240,7 @@
         <v>1.59</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU181" t="n">
         <v>1.37</v>
@@ -38864,7 +38864,7 @@
         <v>1.19</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AU189" t="n">
         <v>1.47</v>
@@ -40743,6 +40743,209 @@
       </c>
       <c r="BK198" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2496772</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45020.58333333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Knockbreda</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Dundela</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>7</v>
+      </c>
+      <c r="R199" t="n">
+        <v>5</v>
+      </c>
+      <c r="S199" t="n">
+        <v>12</v>
+      </c>
+      <c r="T199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.47</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.59</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT6" t="n">
         <v>1.63</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT7" t="n">
         <v>0.82</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT11" t="n">
         <v>1.25</v>
@@ -3136,7 +3136,7 @@
         <v>1.44</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT14" t="n">
         <v>0.88</v>
@@ -3542,7 +3542,7 @@
         <v>1.94</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT21" t="n">
         <v>1.63</v>
@@ -4963,7 +4963,7 @@
         <v>1.47</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU22" t="n">
         <v>2.46</v>
@@ -5166,7 +5166,7 @@
         <v>1.44</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT24" t="n">
         <v>1.06</v>
@@ -5772,10 +5772,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU27" t="n">
         <v>1.73</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -6384,7 +6384,7 @@
         <v>1.59</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT30" t="n">
         <v>0.82</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>0.33</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU33" t="n">
         <v>1.73</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT34" t="n">
         <v>1.25</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -7802,7 +7802,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT36" t="n">
         <v>1.63</v>
@@ -8008,7 +8008,7 @@
         <v>1.69</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU37" t="n">
         <v>1.3</v>
@@ -8211,7 +8211,7 @@
         <v>1.59</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT41" t="n">
         <v>0.88</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT42" t="n">
         <v>1.06</v>
@@ -9226,7 +9226,7 @@
         <v>1.47</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU43" t="n">
         <v>2.46</v>
@@ -9632,7 +9632,7 @@
         <v>1.94</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
         <v>1.63</v>
@@ -10238,10 +10238,10 @@
         <v>1.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU49" t="n">
         <v>1.93</v>
@@ -10644,10 +10644,10 @@
         <v>0.8</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU50" t="n">
         <v>1.26</v>
@@ -10847,10 +10847,10 @@
         <v>0.75</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU51" t="n">
         <v>1.49</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU53" t="n">
         <v>0.96</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
         <v>1.81</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>1.73</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU56" t="n">
         <v>1.93</v>
@@ -12068,7 +12068,7 @@
         <v>1.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12674,7 +12674,7 @@
         <v>2.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT60" t="n">
         <v>1.81</v>
@@ -12877,10 +12877,10 @@
         <v>2.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU61" t="n">
         <v>0.9399999999999999</v>
@@ -13083,7 +13083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU62" t="n">
         <v>1.73</v>
@@ -13286,7 +13286,7 @@
         <v>1.69</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU63" t="n">
         <v>1.3</v>
@@ -13486,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU64" t="n">
         <v>1.51</v>
@@ -13892,10 +13892,10 @@
         <v>1.6</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU67" t="n">
         <v>1.93</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU70" t="n">
         <v>0.96</v>
@@ -14907,7 +14907,7 @@
         <v>1.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT71" t="n">
         <v>1.81</v>
@@ -15110,10 +15110,10 @@
         <v>0.6</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU72" t="n">
         <v>1.66</v>
@@ -15316,7 +15316,7 @@
         <v>1.44</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU73" t="n">
         <v>1.58</v>
@@ -15519,7 +15519,7 @@
         <v>1.69</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU74" t="n">
         <v>1.27</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.82</v>
@@ -16125,10 +16125,10 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -17140,10 +17140,10 @@
         <v>1.57</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17343,10 +17343,10 @@
         <v>0.57</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU83" t="n">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>0.43</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT85" t="n">
         <v>0.88</v>
@@ -17952,10 +17952,10 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU86" t="n">
         <v>1.93</v>
@@ -18361,7 +18361,7 @@
         <v>1.59</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU88" t="n">
         <v>1.61</v>
@@ -18561,10 +18561,10 @@
         <v>1.71</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU89" t="n">
         <v>1.51</v>
@@ -18764,7 +18764,7 @@
         <v>2.17</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT90" t="n">
         <v>1.81</v>
@@ -18970,7 +18970,7 @@
         <v>1.47</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU91" t="n">
         <v>1.86</v>
@@ -19173,7 +19173,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU92" t="n">
         <v>1.4</v>
@@ -19373,7 +19373,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT93" t="n">
         <v>0.82</v>
@@ -19985,7 +19985,7 @@
         <v>1.59</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.46</v>
@@ -20185,10 +20185,10 @@
         <v>1.13</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU97" t="n">
         <v>1.73</v>
@@ -20591,10 +20591,10 @@
         <v>0.88</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU99" t="n">
         <v>0.9399999999999999</v>
@@ -20794,7 +20794,7 @@
         <v>2.29</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT100" t="n">
         <v>1.81</v>
@@ -21000,7 +21000,7 @@
         <v>1.94</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>1.29</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT102" t="n">
         <v>1.63</v>
@@ -21403,7 +21403,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT103" t="n">
         <v>1.25</v>
@@ -21609,7 +21609,7 @@
         <v>1.69</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU104" t="n">
         <v>1.32</v>
@@ -21809,10 +21809,10 @@
         <v>0.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22012,10 +22012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU106" t="n">
         <v>1.77</v>
@@ -22621,10 +22621,10 @@
         <v>0.78</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU109" t="n">
         <v>1.24</v>
@@ -22827,7 +22827,7 @@
         <v>1.94</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23230,10 +23230,10 @@
         <v>1.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU112" t="n">
         <v>1.35</v>
@@ -23433,10 +23433,10 @@
         <v>1.78</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.69</v>
@@ -23839,7 +23839,7 @@
         <v>1.11</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT115" t="n">
         <v>1.06</v>
@@ -24248,7 +24248,7 @@
         <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24448,10 +24448,10 @@
         <v>0.73</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24654,7 +24654,7 @@
         <v>1.69</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU119" t="n">
         <v>1.38</v>
@@ -24854,7 +24854,7 @@
         <v>1.3</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT120" t="n">
         <v>1.25</v>
@@ -25060,7 +25060,7 @@
         <v>1.94</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU121" t="n">
         <v>1.5</v>
@@ -25463,7 +25463,7 @@
         <v>0.44</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT123" t="n">
         <v>0.88</v>
@@ -25669,7 +25669,7 @@
         <v>1.59</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU124" t="n">
         <v>1.37</v>
@@ -25869,7 +25869,7 @@
         <v>1.44</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT125" t="n">
         <v>1.63</v>
@@ -26072,10 +26072,10 @@
         <v>1.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU126" t="n">
         <v>1.56</v>
@@ -26275,7 +26275,7 @@
         <v>1.7</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT127" t="n">
         <v>1.81</v>
@@ -26478,10 +26478,10 @@
         <v>0.91</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26684,7 +26684,7 @@
         <v>1.47</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU129" t="n">
         <v>1.76</v>
@@ -26884,7 +26884,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT130" t="n">
         <v>0.82</v>
@@ -27090,7 +27090,7 @@
         <v>1.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU131" t="n">
         <v>1.73</v>
@@ -27899,7 +27899,7 @@
         <v>1.1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT135" t="n">
         <v>1.06</v>
@@ -28102,10 +28102,10 @@
         <v>1.78</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU136" t="n">
         <v>1.69</v>
@@ -28305,10 +28305,10 @@
         <v>1.73</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU137" t="n">
         <v>1.16</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT138" t="n">
         <v>1.06</v>
@@ -28714,7 +28714,7 @@
         <v>1.44</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU139" t="n">
         <v>1.26</v>
@@ -29117,7 +29117,7 @@
         <v>0.73</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT141" t="n">
         <v>0.88</v>
@@ -29526,7 +29526,7 @@
         <v>1.47</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU143" t="n">
         <v>1.76</v>
@@ -29726,7 +29726,7 @@
         <v>0.92</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT144" t="n">
         <v>0.88</v>
@@ -29929,7 +29929,7 @@
         <v>1.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT145" t="n">
         <v>1.25</v>
@@ -30132,7 +30132,7 @@
         <v>0.92</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT146" t="n">
         <v>1.06</v>
@@ -30741,7 +30741,7 @@
         <v>1.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT149" t="n">
         <v>1.63</v>
@@ -30944,10 +30944,10 @@
         <v>1.9</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU150" t="n">
         <v>1.56</v>
@@ -31353,7 +31353,7 @@
         <v>1.69</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -31756,10 +31756,10 @@
         <v>0.62</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU154" t="n">
         <v>1.68</v>
@@ -32165,7 +32165,7 @@
         <v>1.59</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU156" t="n">
         <v>1.43</v>
@@ -32568,10 +32568,10 @@
         <v>1.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU158" t="n">
         <v>1.5</v>
@@ -32771,7 +32771,7 @@
         <v>1.75</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT159" t="n">
         <v>1.81</v>
@@ -32974,10 +32974,10 @@
         <v>1.08</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU160" t="n">
         <v>1.42</v>
@@ -33177,7 +33177,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS161" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT161" t="n">
         <v>0.82</v>
@@ -33380,10 +33380,10 @@
         <v>1</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU162" t="n">
         <v>1.56</v>
@@ -33992,7 +33992,7 @@
         <v>1.5</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU165" t="n">
         <v>1.73</v>
@@ -34192,10 +34192,10 @@
         <v>0.57</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU166" t="n">
         <v>1.62</v>
@@ -34395,10 +34395,10 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU167" t="n">
         <v>1.5</v>
@@ -34598,10 +34598,10 @@
         <v>2.08</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU168" t="n">
         <v>1.62</v>
@@ -35007,7 +35007,7 @@
         <v>1.44</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU170" t="n">
         <v>1.23</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT171" t="n">
         <v>1.06</v>
@@ -35410,10 +35410,10 @@
         <v>1.23</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU172" t="n">
         <v>1.84</v>
@@ -35613,10 +35613,10 @@
         <v>1.14</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU173" t="n">
         <v>1.5</v>
@@ -36022,7 +36022,7 @@
         <v>1.69</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.3</v>
@@ -36222,7 +36222,7 @@
         <v>0.93</v>
       </c>
       <c r="AS176" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT176" t="n">
         <v>1.06</v>
@@ -36628,7 +36628,7 @@
         <v>1.93</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT178" t="n">
         <v>1.81</v>
@@ -36834,7 +36834,7 @@
         <v>1.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU179" t="n">
         <v>1.62</v>
@@ -37034,7 +37034,7 @@
         <v>0.73</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT180" t="n">
         <v>0.82</v>
@@ -37240,7 +37240,7 @@
         <v>1.59</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU181" t="n">
         <v>1.37</v>
@@ -37440,10 +37440,10 @@
         <v>0.53</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU182" t="n">
         <v>1.82</v>
@@ -37846,10 +37846,10 @@
         <v>1.07</v>
       </c>
       <c r="AS184" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU184" t="n">
         <v>1.56</v>
@@ -38052,7 +38052,7 @@
         <v>1.44</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU185" t="n">
         <v>1.27</v>
@@ -38658,7 +38658,7 @@
         <v>1.73</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT188" t="n">
         <v>1.63</v>
@@ -38861,10 +38861,10 @@
         <v>1.79</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU189" t="n">
         <v>1.47</v>
@@ -39064,10 +39064,10 @@
         <v>1.5</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU190" t="n">
         <v>1.68</v>
@@ -39270,7 +39270,7 @@
         <v>1.44</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU191" t="n">
         <v>1.28</v>
@@ -39470,7 +39470,7 @@
         <v>0.88</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT192" t="n">
         <v>0.82</v>
@@ -39673,7 +39673,7 @@
         <v>1.27</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT193" t="n">
         <v>1.25</v>
@@ -39876,10 +39876,10 @@
         <v>0.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU194" t="n">
         <v>1.32</v>
@@ -40285,7 +40285,7 @@
         <v>1.47</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU196" t="n">
         <v>1.74</v>
@@ -40488,7 +40488,7 @@
         <v>1.94</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU197" t="n">
         <v>1.39</v>
@@ -40688,10 +40688,10 @@
         <v>1.38</v>
       </c>
       <c r="AS198" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU198" t="n">
         <v>1.31</v>
@@ -40891,10 +40891,10 @@
         <v>1.87</v>
       </c>
       <c r="AS199" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AU199" t="n">
         <v>1.31</v>
@@ -40946,6 +40946,1224 @@
       </c>
       <c r="BK199" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5787273</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Newington Youth</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Ballinamallard United</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>4</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>5</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>8</v>
+      </c>
+      <c r="R200" t="n">
+        <v>4</v>
+      </c>
+      <c r="S200" t="n">
+        <v>12</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5787271</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Knockbreda</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Institute</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2</v>
+      </c>
+      <c r="N201" t="n">
+        <v>5</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5787272</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Dergview</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>H&amp;W Welders</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>7</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>11</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5787269</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Loughgall</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ards</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>5</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>5</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>8</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>9</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5787268</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Ballyclare Comrades</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Annagh United</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2</v>
+      </c>
+      <c r="R204" t="n">
+        <v>1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3</v>
+      </c>
+      <c r="T204" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5787270</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Championship</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Warrenpoint Town</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Dundela</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>2</v>
+      </c>
+      <c r="R205" t="n">
+        <v>4</v>
+      </c>
+      <c r="S205" t="n">
+        <v>6</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Championship_20222023.xlsx
@@ -40982,13 +40982,13 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L200" t="n">
         <v>4</v>
@@ -41001,12 +41001,12 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1', '-1']</t>
+          <t>['21', '4501', '87', '9005']</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="Q200" t="n">
@@ -41388,13 +41388,13 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202" t="n">
         <v>2</v>
@@ -41407,7 +41407,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['25', '56']</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -41591,13 +41591,13 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L203" t="n">
         <v>5</v>
@@ -41610,7 +41610,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1', '-1', '-1']</t>
+          <t>['41', '4501', '65', '69', '77']</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -41794,13 +41794,13 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204" t="n">
         <v>2</v>
@@ -41813,12 +41813,12 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['5', '81']</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q204" t="n">
@@ -42000,10 +42000,10 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" t="n">
         <v>1</v>
@@ -42016,12 +42016,12 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['15']</t>
         </is>
       </c>
       <c r="Q205" t="n">
